--- a/database/industries/dode/shekarbon/product/monthly_seprated.xlsx
+++ b/database/industries/dode/shekarbon/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB28718-E584-42E3-910E-DF75076464BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB78B9-6EDD-453D-8C56-AC8763D671CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
     <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1486,92 +1486,92 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>3400</v>
       </c>
       <c r="AA11" s="11">
-        <v>3400</v>
+        <v>3530</v>
       </c>
       <c r="AB11" s="11">
-        <v>3530</v>
+        <v>2951</v>
       </c>
       <c r="AC11" s="11">
-        <v>2951</v>
+        <v>4040</v>
       </c>
       <c r="AD11" s="11">
-        <v>4040</v>
+        <v>3225</v>
       </c>
       <c r="AE11" s="11">
-        <v>3225</v>
+        <v>3438</v>
       </c>
       <c r="AF11" s="11">
-        <v>3438</v>
+        <v>4670</v>
       </c>
       <c r="AG11" s="11">
-        <v>4670</v>
+        <v>4320</v>
       </c>
       <c r="AH11" s="11">
-        <v>4320</v>
+        <v>4193</v>
       </c>
       <c r="AI11" s="11">
-        <v>4193</v>
+        <v>3610</v>
       </c>
       <c r="AJ11" s="11">
-        <v>3610</v>
+        <v>3760</v>
       </c>
       <c r="AK11" s="11">
-        <v>3760</v>
+        <v>4125</v>
       </c>
       <c r="AL11" s="11">
-        <v>4125</v>
+        <v>3924</v>
       </c>
       <c r="AM11" s="11">
-        <v>3924</v>
+        <v>4015</v>
       </c>
       <c r="AN11" s="11">
-        <v>4015</v>
+        <v>3683</v>
       </c>
       <c r="AO11" s="11">
-        <v>3683</v>
+        <v>4100</v>
       </c>
       <c r="AP11" s="11">
-        <v>4100</v>
+        <v>2715</v>
       </c>
       <c r="AQ11" s="11">
-        <v>2715</v>
+        <v>3855</v>
       </c>
       <c r="AR11" s="11">
-        <v>3855</v>
+        <v>3827</v>
       </c>
       <c r="AS11" s="11">
-        <v>3827</v>
+        <v>2999</v>
       </c>
       <c r="AT11" s="11">
-        <v>2999</v>
+        <v>3403</v>
       </c>
       <c r="AU11" s="11">
-        <v>3403</v>
+        <v>3890</v>
       </c>
       <c r="AV11" s="11">
-        <v>3890</v>
+        <v>3877</v>
       </c>
       <c r="AW11" s="11">
-        <v>3877</v>
+        <v>3354</v>
       </c>
       <c r="AX11" s="11">
-        <v>3354</v>
+        <v>3897</v>
       </c>
       <c r="AY11" s="11">
-        <v>3897</v>
+        <v>2874</v>
       </c>
       <c r="AZ11" s="11">
-        <v>2874</v>
+        <v>4121</v>
       </c>
       <c r="BA11" s="11">
-        <v>4121</v>
+        <v>3934</v>
       </c>
       <c r="BB11" s="11">
-        <v>3934</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1644,91 +1644,91 @@
         <v>0</v>
       </c>
       <c r="Z12" s="13">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="AA12" s="13">
-        <v>3400</v>
+        <v>3530</v>
       </c>
       <c r="AB12" s="13">
-        <v>3530</v>
+        <v>2951</v>
       </c>
       <c r="AC12" s="13">
-        <v>2951</v>
+        <v>4040</v>
       </c>
       <c r="AD12" s="13">
-        <v>4040</v>
+        <v>3225</v>
       </c>
       <c r="AE12" s="13">
-        <v>3225</v>
+        <v>3438</v>
       </c>
       <c r="AF12" s="13">
-        <v>3438</v>
+        <v>4670</v>
       </c>
       <c r="AG12" s="13">
-        <v>4670</v>
+        <v>4320</v>
       </c>
       <c r="AH12" s="13">
-        <v>4320</v>
+        <v>4193</v>
       </c>
       <c r="AI12" s="13">
-        <v>4193</v>
+        <v>3610</v>
       </c>
       <c r="AJ12" s="13">
-        <v>3610</v>
+        <v>3760</v>
       </c>
       <c r="AK12" s="13">
-        <v>3760</v>
+        <v>4125</v>
       </c>
       <c r="AL12" s="13">
-        <v>4125</v>
+        <v>3924</v>
       </c>
       <c r="AM12" s="13">
-        <v>3924</v>
+        <v>4015</v>
       </c>
       <c r="AN12" s="13">
-        <v>4015</v>
+        <v>3683</v>
       </c>
       <c r="AO12" s="13">
-        <v>3683</v>
+        <v>4100</v>
       </c>
       <c r="AP12" s="13">
-        <v>4100</v>
+        <v>2715</v>
       </c>
       <c r="AQ12" s="13">
-        <v>2715</v>
+        <v>3855</v>
       </c>
       <c r="AR12" s="13">
-        <v>3855</v>
+        <v>3827</v>
       </c>
       <c r="AS12" s="13">
-        <v>3827</v>
+        <v>2999</v>
       </c>
       <c r="AT12" s="13">
-        <v>2999</v>
+        <v>3403</v>
       </c>
       <c r="AU12" s="13">
-        <v>3403</v>
+        <v>3890</v>
       </c>
       <c r="AV12" s="13">
-        <v>3890</v>
+        <v>3877</v>
       </c>
       <c r="AW12" s="13">
-        <v>3877</v>
+        <v>3354</v>
       </c>
       <c r="AX12" s="13">
-        <v>3354</v>
+        <v>3897</v>
       </c>
       <c r="AY12" s="13">
-        <v>3897</v>
+        <v>2874</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2874</v>
+        <v>4121</v>
       </c>
       <c r="BA12" s="13">
-        <v>4121</v>
+        <v>3934</v>
       </c>
       <c r="BB12" s="13">
-        <v>3934</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1859,8 +1859,8 @@
       <c r="Y14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z14" s="11" t="s">
-        <v>58</v>
+      <c r="Z14" s="11">
+        <v>0</v>
       </c>
       <c r="AA14" s="11">
         <v>0</v>
@@ -1889,8 +1889,8 @@
       <c r="AI14" s="11">
         <v>0</v>
       </c>
-      <c r="AJ14" s="11">
-        <v>0</v>
+      <c r="AJ14" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK14" s="11" t="s">
         <v>58</v>
@@ -1919,17 +1919,17 @@
       <c r="AS14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW14" s="11" t="s">
-        <v>58</v>
+      <c r="AT14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="11">
+        <v>0</v>
       </c>
       <c r="AX14" s="11">
         <v>0</v>
@@ -2230,8 +2230,8 @@
       <c r="Y17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z17" s="17" t="s">
-        <v>58</v>
+      <c r="Z17" s="17">
+        <v>0</v>
       </c>
       <c r="AA17" s="17">
         <v>0</v>
@@ -2388,91 +2388,91 @@
         <v>0</v>
       </c>
       <c r="Z18" s="13">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="AA18" s="13">
-        <v>3400</v>
+        <v>3530</v>
       </c>
       <c r="AB18" s="13">
-        <v>3530</v>
+        <v>2951</v>
       </c>
       <c r="AC18" s="13">
-        <v>2951</v>
+        <v>4040</v>
       </c>
       <c r="AD18" s="13">
-        <v>4040</v>
+        <v>3225</v>
       </c>
       <c r="AE18" s="13">
-        <v>3225</v>
+        <v>3438</v>
       </c>
       <c r="AF18" s="13">
-        <v>3438</v>
+        <v>4670</v>
       </c>
       <c r="AG18" s="13">
-        <v>4670</v>
+        <v>4320</v>
       </c>
       <c r="AH18" s="13">
-        <v>4320</v>
+        <v>4193</v>
       </c>
       <c r="AI18" s="13">
-        <v>4193</v>
+        <v>3610</v>
       </c>
       <c r="AJ18" s="13">
-        <v>3610</v>
+        <v>3760</v>
       </c>
       <c r="AK18" s="13">
-        <v>3760</v>
+        <v>4125</v>
       </c>
       <c r="AL18" s="13">
-        <v>4125</v>
+        <v>3924</v>
       </c>
       <c r="AM18" s="13">
-        <v>3924</v>
+        <v>4015</v>
       </c>
       <c r="AN18" s="13">
-        <v>4015</v>
+        <v>3683</v>
       </c>
       <c r="AO18" s="13">
-        <v>3683</v>
+        <v>4100</v>
       </c>
       <c r="AP18" s="13">
-        <v>4100</v>
+        <v>2715</v>
       </c>
       <c r="AQ18" s="13">
-        <v>2715</v>
+        <v>3855</v>
       </c>
       <c r="AR18" s="13">
-        <v>3855</v>
+        <v>3827</v>
       </c>
       <c r="AS18" s="13">
-        <v>3827</v>
+        <v>2999</v>
       </c>
       <c r="AT18" s="13">
-        <v>2999</v>
+        <v>3403</v>
       </c>
       <c r="AU18" s="13">
-        <v>3403</v>
+        <v>3890</v>
       </c>
       <c r="AV18" s="13">
-        <v>3890</v>
+        <v>3877</v>
       </c>
       <c r="AW18" s="13">
-        <v>3877</v>
+        <v>3354</v>
       </c>
       <c r="AX18" s="13">
-        <v>3354</v>
+        <v>3897</v>
       </c>
       <c r="AY18" s="13">
-        <v>3897</v>
+        <v>2874</v>
       </c>
       <c r="AZ18" s="13">
-        <v>2874</v>
+        <v>4121</v>
       </c>
       <c r="BA18" s="13">
-        <v>4121</v>
+        <v>3934</v>
       </c>
       <c r="BB18" s="13">
-        <v>3934</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2980,92 +2980,92 @@
       <c r="Y25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z25" s="11" t="s">
-        <v>58</v>
+      <c r="Z25" s="11">
+        <v>2595</v>
       </c>
       <c r="AA25" s="11">
-        <v>2595</v>
+        <v>2615</v>
       </c>
       <c r="AB25" s="11">
-        <v>2615</v>
+        <v>2739</v>
       </c>
       <c r="AC25" s="11">
-        <v>2739</v>
+        <v>3374</v>
       </c>
       <c r="AD25" s="11">
-        <v>3374</v>
+        <v>2940</v>
       </c>
       <c r="AE25" s="11">
-        <v>2940</v>
+        <v>2874</v>
       </c>
       <c r="AF25" s="11">
+        <v>3102</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>3396</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>3790</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>1917</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>3437</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>3260</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>2953</v>
+      </c>
+      <c r="AM25" s="11">
+        <v>2308</v>
+      </c>
+      <c r="AN25" s="11">
         <v>2874</v>
       </c>
-      <c r="AG25" s="11">
-        <v>3102</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>3396</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>3790</v>
-      </c>
-      <c r="AJ25" s="11">
-        <v>1917</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>3437</v>
-      </c>
-      <c r="AL25" s="11">
-        <v>3260</v>
-      </c>
-      <c r="AM25" s="11">
-        <v>2953</v>
-      </c>
-      <c r="AN25" s="11">
-        <v>2308</v>
-      </c>
       <c r="AO25" s="11">
-        <v>2874</v>
+        <v>2370</v>
       </c>
       <c r="AP25" s="11">
-        <v>2370</v>
+        <v>2519</v>
       </c>
       <c r="AQ25" s="11">
-        <v>2519</v>
+        <v>2083</v>
       </c>
       <c r="AR25" s="11">
-        <v>2083</v>
+        <v>2407</v>
       </c>
       <c r="AS25" s="11">
-        <v>2407</v>
+        <v>1877</v>
       </c>
       <c r="AT25" s="11">
-        <v>1877</v>
+        <v>2743</v>
       </c>
       <c r="AU25" s="11">
-        <v>2743</v>
+        <v>2593</v>
       </c>
       <c r="AV25" s="11">
-        <v>2593</v>
+        <v>2669</v>
       </c>
       <c r="AW25" s="11">
-        <v>2669</v>
+        <v>2767</v>
       </c>
       <c r="AX25" s="11">
-        <v>2767</v>
+        <v>3203</v>
       </c>
       <c r="AY25" s="11">
-        <v>3203</v>
+        <v>3075</v>
       </c>
       <c r="AZ25" s="11">
-        <v>3075</v>
+        <v>2016</v>
       </c>
       <c r="BA25" s="11">
-        <v>2016</v>
+        <v>2671</v>
       </c>
       <c r="BB25" s="11">
-        <v>2671</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3138,91 +3138,91 @@
         <v>0</v>
       </c>
       <c r="Z26" s="13">
-        <v>0</v>
+        <v>2595</v>
       </c>
       <c r="AA26" s="13">
-        <v>2595</v>
+        <v>2615</v>
       </c>
       <c r="AB26" s="13">
-        <v>2615</v>
+        <v>2739</v>
       </c>
       <c r="AC26" s="13">
-        <v>2739</v>
+        <v>3374</v>
       </c>
       <c r="AD26" s="13">
-        <v>3374</v>
+        <v>2940</v>
       </c>
       <c r="AE26" s="13">
-        <v>2940</v>
+        <v>2874</v>
       </c>
       <c r="AF26" s="13">
+        <v>3102</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>3396</v>
+      </c>
+      <c r="AH26" s="13">
+        <v>3790</v>
+      </c>
+      <c r="AI26" s="13">
+        <v>1917</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>3437</v>
+      </c>
+      <c r="AK26" s="13">
+        <v>3260</v>
+      </c>
+      <c r="AL26" s="13">
+        <v>2953</v>
+      </c>
+      <c r="AM26" s="13">
+        <v>2308</v>
+      </c>
+      <c r="AN26" s="13">
         <v>2874</v>
       </c>
-      <c r="AG26" s="13">
-        <v>3102</v>
-      </c>
-      <c r="AH26" s="13">
-        <v>3396</v>
-      </c>
-      <c r="AI26" s="13">
-        <v>3790</v>
-      </c>
-      <c r="AJ26" s="13">
-        <v>1917</v>
-      </c>
-      <c r="AK26" s="13">
-        <v>3437</v>
-      </c>
-      <c r="AL26" s="13">
-        <v>3260</v>
-      </c>
-      <c r="AM26" s="13">
-        <v>2953</v>
-      </c>
-      <c r="AN26" s="13">
-        <v>2308</v>
-      </c>
       <c r="AO26" s="13">
-        <v>2874</v>
+        <v>2370</v>
       </c>
       <c r="AP26" s="13">
-        <v>2370</v>
+        <v>2519</v>
       </c>
       <c r="AQ26" s="13">
-        <v>2519</v>
+        <v>2083</v>
       </c>
       <c r="AR26" s="13">
-        <v>2083</v>
+        <v>2407</v>
       </c>
       <c r="AS26" s="13">
-        <v>2407</v>
+        <v>1877</v>
       </c>
       <c r="AT26" s="13">
-        <v>1877</v>
+        <v>2743</v>
       </c>
       <c r="AU26" s="13">
-        <v>2743</v>
+        <v>2593</v>
       </c>
       <c r="AV26" s="13">
-        <v>2593</v>
+        <v>2669</v>
       </c>
       <c r="AW26" s="13">
-        <v>2669</v>
+        <v>2767</v>
       </c>
       <c r="AX26" s="13">
-        <v>2767</v>
+        <v>3203</v>
       </c>
       <c r="AY26" s="13">
-        <v>3203</v>
+        <v>3075</v>
       </c>
       <c r="AZ26" s="13">
-        <v>3075</v>
+        <v>2016</v>
       </c>
       <c r="BA26" s="13">
-        <v>2016</v>
+        <v>2671</v>
       </c>
       <c r="BB26" s="13">
-        <v>2671</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3353,92 +3353,92 @@
       <c r="Y28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z28" s="11" t="s">
-        <v>58</v>
+      <c r="Z28" s="11">
+        <v>1466</v>
       </c>
       <c r="AA28" s="11">
-        <v>1466</v>
+        <v>1375</v>
       </c>
       <c r="AB28" s="11">
-        <v>1375</v>
+        <v>591</v>
       </c>
       <c r="AC28" s="11">
-        <v>591</v>
+        <v>853</v>
       </c>
       <c r="AD28" s="11">
-        <v>853</v>
+        <v>738</v>
       </c>
       <c r="AE28" s="11">
-        <v>738</v>
+        <v>944</v>
       </c>
       <c r="AF28" s="11">
-        <v>944</v>
+        <v>1334</v>
       </c>
       <c r="AG28" s="11">
-        <v>1334</v>
+        <v>393</v>
       </c>
       <c r="AH28" s="11">
-        <v>393</v>
+        <v>1055</v>
       </c>
       <c r="AI28" s="11">
-        <v>1055</v>
+        <v>949</v>
       </c>
       <c r="AJ28" s="11">
-        <v>949</v>
+        <v>798</v>
       </c>
       <c r="AK28" s="11">
-        <v>798</v>
+        <v>530</v>
       </c>
       <c r="AL28" s="11">
-        <v>530</v>
+        <v>453</v>
       </c>
       <c r="AM28" s="11">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="AN28" s="11">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="AO28" s="11">
-        <v>500</v>
+        <v>732</v>
       </c>
       <c r="AP28" s="11">
-        <v>732</v>
+        <v>861</v>
       </c>
       <c r="AQ28" s="11">
-        <v>861</v>
+        <v>1046</v>
       </c>
       <c r="AR28" s="11">
-        <v>1046</v>
+        <v>868</v>
       </c>
       <c r="AS28" s="11">
-        <v>868</v>
+        <v>1478</v>
       </c>
       <c r="AT28" s="11">
-        <v>1478</v>
+        <v>1769</v>
       </c>
       <c r="AU28" s="11">
-        <v>1769</v>
+        <v>846</v>
       </c>
       <c r="AV28" s="11">
-        <v>846</v>
+        <v>904</v>
       </c>
       <c r="AW28" s="11">
-        <v>904</v>
+        <v>1210</v>
       </c>
       <c r="AX28" s="11">
-        <v>1210</v>
+        <v>443</v>
       </c>
       <c r="AY28" s="11">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="AZ28" s="11">
-        <v>468</v>
+        <v>957</v>
       </c>
       <c r="BA28" s="11">
-        <v>957</v>
+        <v>1439</v>
       </c>
       <c r="BB28" s="11">
-        <v>1439</v>
+        <v>912</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3511,91 +3511,91 @@
         <v>0</v>
       </c>
       <c r="Z29" s="13">
-        <v>0</v>
+        <v>1466</v>
       </c>
       <c r="AA29" s="13">
-        <v>1466</v>
+        <v>1375</v>
       </c>
       <c r="AB29" s="13">
-        <v>1375</v>
+        <v>591</v>
       </c>
       <c r="AC29" s="13">
-        <v>591</v>
+        <v>853</v>
       </c>
       <c r="AD29" s="13">
-        <v>853</v>
+        <v>738</v>
       </c>
       <c r="AE29" s="13">
-        <v>738</v>
+        <v>944</v>
       </c>
       <c r="AF29" s="13">
-        <v>944</v>
+        <v>1334</v>
       </c>
       <c r="AG29" s="13">
-        <v>1334</v>
+        <v>393</v>
       </c>
       <c r="AH29" s="13">
-        <v>393</v>
+        <v>1055</v>
       </c>
       <c r="AI29" s="13">
-        <v>1055</v>
+        <v>949</v>
       </c>
       <c r="AJ29" s="13">
-        <v>949</v>
+        <v>798</v>
       </c>
       <c r="AK29" s="13">
-        <v>798</v>
+        <v>530</v>
       </c>
       <c r="AL29" s="13">
-        <v>530</v>
+        <v>453</v>
       </c>
       <c r="AM29" s="13">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="AN29" s="13">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="AO29" s="13">
-        <v>500</v>
+        <v>732</v>
       </c>
       <c r="AP29" s="13">
-        <v>732</v>
+        <v>861</v>
       </c>
       <c r="AQ29" s="13">
-        <v>861</v>
+        <v>1046</v>
       </c>
       <c r="AR29" s="13">
-        <v>1046</v>
+        <v>868</v>
       </c>
       <c r="AS29" s="13">
-        <v>868</v>
+        <v>1478</v>
       </c>
       <c r="AT29" s="13">
-        <v>1478</v>
+        <v>1769</v>
       </c>
       <c r="AU29" s="13">
-        <v>1769</v>
+        <v>846</v>
       </c>
       <c r="AV29" s="13">
-        <v>846</v>
+        <v>904</v>
       </c>
       <c r="AW29" s="13">
-        <v>904</v>
+        <v>1210</v>
       </c>
       <c r="AX29" s="13">
-        <v>1210</v>
+        <v>443</v>
       </c>
       <c r="AY29" s="13">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="AZ29" s="13">
-        <v>468</v>
+        <v>957</v>
       </c>
       <c r="BA29" s="13">
-        <v>957</v>
+        <v>1439</v>
       </c>
       <c r="BB29" s="13">
-        <v>1439</v>
+        <v>912</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3724,8 +3724,8 @@
       <c r="Y31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z31" s="17" t="s">
-        <v>58</v>
+      <c r="Z31" s="17">
+        <v>0</v>
       </c>
       <c r="AA31" s="17">
         <v>0</v>
@@ -3940,8 +3940,8 @@
       <c r="Y33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z33" s="11" t="s">
-        <v>58</v>
+      <c r="Z33" s="11">
+        <v>0</v>
       </c>
       <c r="AA33" s="11">
         <v>0</v>
@@ -3967,8 +3967,8 @@
       <c r="AH33" s="11">
         <v>0</v>
       </c>
-      <c r="AI33" s="11">
-        <v>0</v>
+      <c r="AI33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ33" s="11" t="s">
         <v>58</v>
@@ -4003,12 +4003,12 @@
       <c r="AT33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV33" s="11">
+      <c r="AU33" s="11">
         <v>-9</v>
       </c>
+      <c r="AV33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AW33" s="11" t="s">
         <v>58</v>
       </c>
@@ -4024,8 +4024,8 @@
       <c r="BA33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB33" s="11" t="s">
-        <v>58</v>
+      <c r="BB33" s="11">
+        <v>-10</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4097,8 +4097,8 @@
       <c r="Y34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z34" s="13" t="s">
-        <v>58</v>
+      <c r="Z34" s="13">
+        <v>0</v>
       </c>
       <c r="AA34" s="13">
         <v>0</v>
@@ -4161,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="AU34" s="13">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AV34" s="13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="13">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="BB34" s="13">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4255,91 +4255,91 @@
         <v>0</v>
       </c>
       <c r="Z35" s="17">
-        <v>0</v>
+        <v>4061</v>
       </c>
       <c r="AA35" s="17">
-        <v>4061</v>
+        <v>3990</v>
       </c>
       <c r="AB35" s="17">
-        <v>3990</v>
+        <v>3330</v>
       </c>
       <c r="AC35" s="17">
-        <v>3330</v>
+        <v>4227</v>
       </c>
       <c r="AD35" s="17">
-        <v>4227</v>
+        <v>3678</v>
       </c>
       <c r="AE35" s="17">
-        <v>3678</v>
+        <v>3818</v>
       </c>
       <c r="AF35" s="17">
-        <v>3818</v>
+        <v>4436</v>
       </c>
       <c r="AG35" s="17">
-        <v>4436</v>
+        <v>3789</v>
       </c>
       <c r="AH35" s="17">
-        <v>3789</v>
+        <v>4845</v>
       </c>
       <c r="AI35" s="17">
-        <v>4845</v>
+        <v>2866</v>
       </c>
       <c r="AJ35" s="17">
-        <v>2866</v>
+        <v>4235</v>
       </c>
       <c r="AK35" s="17">
-        <v>4235</v>
+        <v>3790</v>
       </c>
       <c r="AL35" s="17">
-        <v>3790</v>
+        <v>3406</v>
       </c>
       <c r="AM35" s="17">
-        <v>3406</v>
+        <v>2735</v>
       </c>
       <c r="AN35" s="17">
-        <v>2735</v>
+        <v>3374</v>
       </c>
       <c r="AO35" s="17">
-        <v>3374</v>
+        <v>3102</v>
       </c>
       <c r="AP35" s="17">
-        <v>3102</v>
+        <v>3380</v>
       </c>
       <c r="AQ35" s="17">
-        <v>3380</v>
+        <v>3129</v>
       </c>
       <c r="AR35" s="17">
-        <v>3129</v>
+        <v>3275</v>
       </c>
       <c r="AS35" s="17">
-        <v>3275</v>
+        <v>3355</v>
       </c>
       <c r="AT35" s="17">
-        <v>3355</v>
+        <v>4512</v>
       </c>
       <c r="AU35" s="17">
-        <v>4512</v>
+        <v>3430</v>
       </c>
       <c r="AV35" s="17">
-        <v>3430</v>
+        <v>3573</v>
       </c>
       <c r="AW35" s="17">
-        <v>3573</v>
+        <v>3977</v>
       </c>
       <c r="AX35" s="17">
-        <v>3977</v>
+        <v>3646</v>
       </c>
       <c r="AY35" s="17">
-        <v>3646</v>
+        <v>3543</v>
       </c>
       <c r="AZ35" s="17">
-        <v>3543</v>
+        <v>2973</v>
       </c>
       <c r="BA35" s="17">
-        <v>2973</v>
+        <v>4110</v>
       </c>
       <c r="BB35" s="17">
-        <v>4110</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4847,92 +4847,92 @@
       <c r="Y42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z42" s="11" t="s">
-        <v>58</v>
+      <c r="Z42" s="11">
+        <v>224973</v>
       </c>
       <c r="AA42" s="11">
-        <v>224973</v>
+        <v>276924</v>
       </c>
       <c r="AB42" s="11">
-        <v>276924</v>
+        <v>324272</v>
       </c>
       <c r="AC42" s="11">
-        <v>324272</v>
+        <v>430026</v>
       </c>
       <c r="AD42" s="11">
-        <v>430026</v>
+        <v>414711</v>
       </c>
       <c r="AE42" s="11">
-        <v>414711</v>
+        <v>460685</v>
       </c>
       <c r="AF42" s="11">
-        <v>460685</v>
+        <v>559680</v>
       </c>
       <c r="AG42" s="11">
-        <v>559680</v>
+        <v>654444</v>
       </c>
       <c r="AH42" s="11">
-        <v>654444</v>
+        <v>781104</v>
       </c>
       <c r="AI42" s="11">
-        <v>781104</v>
+        <v>413878</v>
       </c>
       <c r="AJ42" s="11">
-        <v>413878</v>
+        <v>796529</v>
       </c>
       <c r="AK42" s="11">
-        <v>796529</v>
+        <v>752983</v>
       </c>
       <c r="AL42" s="11">
-        <v>752983</v>
+        <v>692149</v>
       </c>
       <c r="AM42" s="11">
-        <v>692149</v>
+        <v>558330</v>
       </c>
       <c r="AN42" s="11">
-        <v>558330</v>
+        <v>715917</v>
       </c>
       <c r="AO42" s="11">
-        <v>715917</v>
+        <v>608406</v>
       </c>
       <c r="AP42" s="11">
-        <v>608406</v>
+        <v>668905</v>
       </c>
       <c r="AQ42" s="11">
-        <v>668905</v>
+        <v>553700</v>
       </c>
       <c r="AR42" s="11">
-        <v>553700</v>
+        <v>642062</v>
       </c>
       <c r="AS42" s="11">
-        <v>642062</v>
+        <v>522801</v>
       </c>
       <c r="AT42" s="11">
-        <v>522801</v>
+        <v>829210</v>
       </c>
       <c r="AU42" s="11">
-        <v>829210</v>
+        <v>914535</v>
       </c>
       <c r="AV42" s="11">
-        <v>914535</v>
+        <v>992568</v>
       </c>
       <c r="AW42" s="11">
-        <v>992568</v>
+        <v>1166594</v>
       </c>
       <c r="AX42" s="11">
-        <v>1166594</v>
+        <v>1413550</v>
       </c>
       <c r="AY42" s="11">
-        <v>1413550</v>
+        <v>1369807</v>
       </c>
       <c r="AZ42" s="11">
-        <v>1369807</v>
+        <v>858016</v>
       </c>
       <c r="BA42" s="11">
-        <v>858016</v>
+        <v>1023713</v>
       </c>
       <c r="BB42" s="11">
-        <v>1023713</v>
+        <v>963817</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5005,91 +5005,91 @@
         <v>0</v>
       </c>
       <c r="Z43" s="13">
-        <v>0</v>
+        <v>224973</v>
       </c>
       <c r="AA43" s="13">
-        <v>224973</v>
+        <v>276924</v>
       </c>
       <c r="AB43" s="13">
-        <v>276924</v>
+        <v>324272</v>
       </c>
       <c r="AC43" s="13">
-        <v>324272</v>
+        <v>430026</v>
       </c>
       <c r="AD43" s="13">
-        <v>430026</v>
+        <v>414711</v>
       </c>
       <c r="AE43" s="13">
-        <v>414711</v>
+        <v>460685</v>
       </c>
       <c r="AF43" s="13">
-        <v>460685</v>
+        <v>559680</v>
       </c>
       <c r="AG43" s="13">
-        <v>559680</v>
+        <v>654444</v>
       </c>
       <c r="AH43" s="13">
-        <v>654444</v>
+        <v>781104</v>
       </c>
       <c r="AI43" s="13">
-        <v>781104</v>
+        <v>413878</v>
       </c>
       <c r="AJ43" s="13">
-        <v>413878</v>
+        <v>796529</v>
       </c>
       <c r="AK43" s="13">
-        <v>796529</v>
+        <v>752983</v>
       </c>
       <c r="AL43" s="13">
-        <v>752983</v>
+        <v>692149</v>
       </c>
       <c r="AM43" s="13">
-        <v>692149</v>
+        <v>558330</v>
       </c>
       <c r="AN43" s="13">
-        <v>558330</v>
+        <v>715917</v>
       </c>
       <c r="AO43" s="13">
-        <v>715917</v>
+        <v>608406</v>
       </c>
       <c r="AP43" s="13">
-        <v>608406</v>
+        <v>668905</v>
       </c>
       <c r="AQ43" s="13">
-        <v>668905</v>
+        <v>553700</v>
       </c>
       <c r="AR43" s="13">
-        <v>553700</v>
+        <v>642062</v>
       </c>
       <c r="AS43" s="13">
-        <v>642062</v>
+        <v>522801</v>
       </c>
       <c r="AT43" s="13">
-        <v>522801</v>
+        <v>829210</v>
       </c>
       <c r="AU43" s="13">
-        <v>829210</v>
+        <v>914535</v>
       </c>
       <c r="AV43" s="13">
-        <v>914535</v>
+        <v>992568</v>
       </c>
       <c r="AW43" s="13">
-        <v>992568</v>
+        <v>1166594</v>
       </c>
       <c r="AX43" s="13">
-        <v>1166594</v>
+        <v>1413550</v>
       </c>
       <c r="AY43" s="13">
-        <v>1413550</v>
+        <v>1369807</v>
       </c>
       <c r="AZ43" s="13">
-        <v>1369807</v>
+        <v>858016</v>
       </c>
       <c r="BA43" s="13">
-        <v>858016</v>
+        <v>1023713</v>
       </c>
       <c r="BB43" s="13">
-        <v>1023713</v>
+        <v>963817</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5220,92 +5220,92 @@
       <c r="Y45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z45" s="11" t="s">
-        <v>58</v>
+      <c r="Z45" s="11">
+        <v>91339</v>
       </c>
       <c r="AA45" s="11">
-        <v>91339</v>
+        <v>102827</v>
       </c>
       <c r="AB45" s="11">
-        <v>102827</v>
+        <v>51542</v>
       </c>
       <c r="AC45" s="11">
-        <v>51542</v>
+        <v>98090</v>
       </c>
       <c r="AD45" s="11">
-        <v>98090</v>
+        <v>96759</v>
       </c>
       <c r="AE45" s="11">
-        <v>96759</v>
+        <v>135160</v>
       </c>
       <c r="AF45" s="11">
-        <v>135160</v>
+        <v>244392</v>
       </c>
       <c r="AG45" s="11">
-        <v>244392</v>
+        <v>72577</v>
       </c>
       <c r="AH45" s="11">
-        <v>72577</v>
+        <v>213033</v>
       </c>
       <c r="AI45" s="11">
-        <v>213033</v>
+        <v>209645</v>
       </c>
       <c r="AJ45" s="11">
-        <v>209645</v>
+        <v>177349</v>
       </c>
       <c r="AK45" s="11">
-        <v>177349</v>
+        <v>112514</v>
       </c>
       <c r="AL45" s="11">
-        <v>112514</v>
+        <v>101578</v>
       </c>
       <c r="AM45" s="11">
-        <v>101578</v>
+        <v>97719</v>
       </c>
       <c r="AN45" s="11">
-        <v>97719</v>
+        <v>114452</v>
       </c>
       <c r="AO45" s="11">
-        <v>114452</v>
+        <v>164061</v>
       </c>
       <c r="AP45" s="11">
-        <v>164061</v>
+        <v>188240</v>
       </c>
       <c r="AQ45" s="11">
-        <v>188240</v>
+        <v>236083</v>
       </c>
       <c r="AR45" s="11">
-        <v>236083</v>
+        <v>203832</v>
       </c>
       <c r="AS45" s="11">
-        <v>203832</v>
+        <v>340036</v>
       </c>
       <c r="AT45" s="11">
-        <v>340036</v>
+        <v>403583</v>
       </c>
       <c r="AU45" s="11">
-        <v>403583</v>
+        <v>234139</v>
       </c>
       <c r="AV45" s="11">
-        <v>234139</v>
+        <v>291910</v>
       </c>
       <c r="AW45" s="11">
-        <v>291910</v>
+        <v>429331</v>
       </c>
       <c r="AX45" s="11">
-        <v>429331</v>
+        <v>146071</v>
       </c>
       <c r="AY45" s="11">
-        <v>146071</v>
+        <v>160012</v>
       </c>
       <c r="AZ45" s="11">
-        <v>160012</v>
+        <v>304799</v>
       </c>
       <c r="BA45" s="11">
-        <v>304799</v>
+        <v>434572</v>
       </c>
       <c r="BB45" s="11">
-        <v>434572</v>
+        <v>266160</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5378,91 +5378,91 @@
         <v>0</v>
       </c>
       <c r="Z46" s="13">
-        <v>0</v>
+        <v>91339</v>
       </c>
       <c r="AA46" s="13">
-        <v>91339</v>
+        <v>102827</v>
       </c>
       <c r="AB46" s="13">
-        <v>102827</v>
+        <v>51542</v>
       </c>
       <c r="AC46" s="13">
-        <v>51542</v>
+        <v>98090</v>
       </c>
       <c r="AD46" s="13">
-        <v>98090</v>
+        <v>96759</v>
       </c>
       <c r="AE46" s="13">
-        <v>96759</v>
+        <v>135160</v>
       </c>
       <c r="AF46" s="13">
-        <v>135160</v>
+        <v>244392</v>
       </c>
       <c r="AG46" s="13">
-        <v>244392</v>
+        <v>72577</v>
       </c>
       <c r="AH46" s="13">
-        <v>72577</v>
+        <v>213033</v>
       </c>
       <c r="AI46" s="13">
-        <v>213033</v>
+        <v>209645</v>
       </c>
       <c r="AJ46" s="13">
-        <v>209645</v>
+        <v>177349</v>
       </c>
       <c r="AK46" s="13">
-        <v>177349</v>
+        <v>112514</v>
       </c>
       <c r="AL46" s="13">
-        <v>112514</v>
+        <v>101578</v>
       </c>
       <c r="AM46" s="13">
-        <v>101578</v>
+        <v>97719</v>
       </c>
       <c r="AN46" s="13">
-        <v>97719</v>
+        <v>114452</v>
       </c>
       <c r="AO46" s="13">
-        <v>114452</v>
+        <v>164061</v>
       </c>
       <c r="AP46" s="13">
-        <v>164061</v>
+        <v>188240</v>
       </c>
       <c r="AQ46" s="13">
-        <v>188240</v>
+        <v>236083</v>
       </c>
       <c r="AR46" s="13">
-        <v>236083</v>
+        <v>203832</v>
       </c>
       <c r="AS46" s="13">
-        <v>203832</v>
+        <v>340036</v>
       </c>
       <c r="AT46" s="13">
-        <v>340036</v>
+        <v>403583</v>
       </c>
       <c r="AU46" s="13">
-        <v>403583</v>
+        <v>234139</v>
       </c>
       <c r="AV46" s="13">
-        <v>234139</v>
+        <v>291910</v>
       </c>
       <c r="AW46" s="13">
-        <v>291910</v>
+        <v>429331</v>
       </c>
       <c r="AX46" s="13">
-        <v>429331</v>
+        <v>146071</v>
       </c>
       <c r="AY46" s="13">
-        <v>146071</v>
+        <v>160012</v>
       </c>
       <c r="AZ46" s="13">
-        <v>160012</v>
+        <v>304799</v>
       </c>
       <c r="BA46" s="13">
-        <v>304799</v>
+        <v>434572</v>
       </c>
       <c r="BB46" s="13">
-        <v>434572</v>
+        <v>266160</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5593,8 +5593,8 @@
       <c r="Y48" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z48" s="17" t="s">
-        <v>58</v>
+      <c r="Z48" s="17">
+        <v>0</v>
       </c>
       <c r="AA48" s="17">
         <v>0</v>
@@ -5809,8 +5809,8 @@
       <c r="Y50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z50" s="11" t="s">
-        <v>58</v>
+      <c r="Z50" s="11">
+        <v>0</v>
       </c>
       <c r="AA50" s="11">
         <v>0</v>
@@ -5836,8 +5836,8 @@
       <c r="AH50" s="11">
         <v>0</v>
       </c>
-      <c r="AI50" s="11">
-        <v>0</v>
+      <c r="AI50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ50" s="11" t="s">
         <v>58</v>
@@ -5872,11 +5872,11 @@
       <c r="AT50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU50" s="11" t="s">
-        <v>58</v>
+      <c r="AU50" s="11">
+        <v>-3399</v>
       </c>
       <c r="AV50" s="11">
-        <v>-3399</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="11">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="BB50" s="11">
-        <v>0</v>
+        <v>-3387</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -5968,8 +5968,8 @@
       <c r="Y51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z51" s="13" t="s">
-        <v>58</v>
+      <c r="Z51" s="13">
+        <v>0</v>
       </c>
       <c r="AA51" s="13">
         <v>0</v>
@@ -6032,10 +6032,10 @@
         <v>0</v>
       </c>
       <c r="AU51" s="13">
-        <v>0</v>
+        <v>-3399</v>
       </c>
       <c r="AV51" s="13">
-        <v>-3399</v>
+        <v>0</v>
       </c>
       <c r="AW51" s="13">
         <v>0</v>
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="BB51" s="13">
-        <v>0</v>
+        <v>-3387</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6184,8 +6184,8 @@
       <c r="Y53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z53" s="11" t="s">
-        <v>58</v>
+      <c r="Z53" s="11">
+        <v>0</v>
       </c>
       <c r="AA53" s="11">
         <v>0</v>
@@ -6342,91 +6342,91 @@
         <v>0</v>
       </c>
       <c r="Z54" s="13">
-        <v>0</v>
+        <v>316312</v>
       </c>
       <c r="AA54" s="13">
-        <v>316312</v>
+        <v>379751</v>
       </c>
       <c r="AB54" s="13">
-        <v>379751</v>
+        <v>375814</v>
       </c>
       <c r="AC54" s="13">
-        <v>375814</v>
+        <v>528116</v>
       </c>
       <c r="AD54" s="13">
-        <v>528116</v>
+        <v>511470</v>
       </c>
       <c r="AE54" s="13">
-        <v>511470</v>
+        <v>595845</v>
       </c>
       <c r="AF54" s="13">
-        <v>595845</v>
+        <v>804072</v>
       </c>
       <c r="AG54" s="13">
-        <v>804072</v>
+        <v>727021</v>
       </c>
       <c r="AH54" s="13">
-        <v>727021</v>
+        <v>994137</v>
       </c>
       <c r="AI54" s="13">
-        <v>994137</v>
+        <v>623523</v>
       </c>
       <c r="AJ54" s="13">
-        <v>623523</v>
+        <v>973878</v>
       </c>
       <c r="AK54" s="13">
-        <v>973878</v>
+        <v>865497</v>
       </c>
       <c r="AL54" s="13">
-        <v>865497</v>
+        <v>793727</v>
       </c>
       <c r="AM54" s="13">
-        <v>793727</v>
+        <v>656049</v>
       </c>
       <c r="AN54" s="13">
-        <v>656049</v>
+        <v>830369</v>
       </c>
       <c r="AO54" s="13">
-        <v>830369</v>
+        <v>772467</v>
       </c>
       <c r="AP54" s="13">
-        <v>772467</v>
+        <v>857145</v>
       </c>
       <c r="AQ54" s="13">
-        <v>857145</v>
+        <v>789783</v>
       </c>
       <c r="AR54" s="13">
-        <v>789783</v>
+        <v>845894</v>
       </c>
       <c r="AS54" s="13">
-        <v>845894</v>
+        <v>862837</v>
       </c>
       <c r="AT54" s="13">
-        <v>862837</v>
+        <v>1232793</v>
       </c>
       <c r="AU54" s="13">
-        <v>1232793</v>
+        <v>1145275</v>
       </c>
       <c r="AV54" s="13">
-        <v>1145275</v>
+        <v>1284478</v>
       </c>
       <c r="AW54" s="13">
-        <v>1284478</v>
+        <v>1595925</v>
       </c>
       <c r="AX54" s="13">
-        <v>1595925</v>
+        <v>1559621</v>
       </c>
       <c r="AY54" s="13">
-        <v>1559621</v>
+        <v>1529819</v>
       </c>
       <c r="AZ54" s="13">
-        <v>1529819</v>
+        <v>1162815</v>
       </c>
       <c r="BA54" s="13">
-        <v>1162815</v>
+        <v>1458285</v>
       </c>
       <c r="BB54" s="13">
-        <v>1458285</v>
+        <v>1226590</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6934,92 +6934,92 @@
       <c r="Y61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z61" s="11" t="s">
-        <v>58</v>
+      <c r="Z61" s="11">
+        <v>86694798</v>
       </c>
       <c r="AA61" s="11">
-        <v>86694798</v>
+        <v>105898279</v>
       </c>
       <c r="AB61" s="11">
-        <v>105898279</v>
+        <v>118390654</v>
       </c>
       <c r="AC61" s="11">
-        <v>118390654</v>
+        <v>127452875</v>
       </c>
       <c r="AD61" s="11">
-        <v>127452875</v>
+        <v>141058163</v>
       </c>
       <c r="AE61" s="11">
-        <v>141058163</v>
+        <v>160294015</v>
       </c>
       <c r="AF61" s="11">
-        <v>160294015</v>
+        <v>180425532</v>
       </c>
       <c r="AG61" s="11">
-        <v>180425532</v>
+        <v>192710247</v>
       </c>
       <c r="AH61" s="11">
-        <v>192710247</v>
+        <v>206096042</v>
       </c>
       <c r="AI61" s="11">
-        <v>206096042</v>
+        <v>215898800</v>
       </c>
       <c r="AJ61" s="11">
-        <v>215898800</v>
+        <v>231751237</v>
       </c>
       <c r="AK61" s="11">
-        <v>231751237</v>
+        <v>230976380</v>
       </c>
       <c r="AL61" s="11">
-        <v>230976380</v>
+        <v>234388419</v>
       </c>
       <c r="AM61" s="11">
-        <v>234388419</v>
+        <v>241910745</v>
       </c>
       <c r="AN61" s="11">
-        <v>241910745</v>
+        <v>249101253</v>
       </c>
       <c r="AO61" s="11">
-        <v>249101253</v>
+        <v>256711392</v>
       </c>
       <c r="AP61" s="11">
-        <v>256711392</v>
+        <v>265543867</v>
       </c>
       <c r="AQ61" s="11">
-        <v>265543867</v>
+        <v>265818531</v>
       </c>
       <c r="AR61" s="11">
-        <v>265818531</v>
+        <v>266747819</v>
       </c>
       <c r="AS61" s="11">
-        <v>266747819</v>
+        <v>278530101</v>
       </c>
       <c r="AT61" s="11">
-        <v>278530101</v>
+        <v>302300401</v>
       </c>
       <c r="AU61" s="11">
-        <v>302300401</v>
+        <v>352693791</v>
       </c>
       <c r="AV61" s="11">
-        <v>352693791</v>
+        <v>371887598</v>
       </c>
       <c r="AW61" s="11">
-        <v>371887598</v>
+        <v>421609686</v>
       </c>
       <c r="AX61" s="11">
-        <v>421609686</v>
+        <v>441320637</v>
       </c>
       <c r="AY61" s="11">
-        <v>441320637</v>
+        <v>445465691</v>
       </c>
       <c r="AZ61" s="11">
-        <v>445465691</v>
+        <v>425603175</v>
       </c>
       <c r="BA61" s="11">
-        <v>425603175</v>
+        <v>383269562</v>
       </c>
       <c r="BB61" s="11">
-        <v>383269562</v>
+        <v>372705723</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7150,92 +7150,92 @@
       <c r="Y63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z63" s="11" t="s">
-        <v>58</v>
+      <c r="Z63" s="11">
+        <v>62304911</v>
       </c>
       <c r="AA63" s="11">
-        <v>62304911</v>
+        <v>74783273</v>
       </c>
       <c r="AB63" s="11">
-        <v>74783273</v>
+        <v>87211506</v>
       </c>
       <c r="AC63" s="11">
-        <v>87211506</v>
+        <v>114994138</v>
       </c>
       <c r="AD63" s="11">
-        <v>114994138</v>
+        <v>131109756</v>
       </c>
       <c r="AE63" s="11">
-        <v>131109756</v>
+        <v>143177966</v>
       </c>
       <c r="AF63" s="11">
-        <v>143177966</v>
+        <v>183202399</v>
       </c>
       <c r="AG63" s="11">
-        <v>183202399</v>
+        <v>184674300</v>
       </c>
       <c r="AH63" s="11">
-        <v>184674300</v>
+        <v>201927014</v>
       </c>
       <c r="AI63" s="11">
-        <v>201927014</v>
+        <v>220911486</v>
       </c>
       <c r="AJ63" s="11">
-        <v>220911486</v>
+        <v>222241855</v>
       </c>
       <c r="AK63" s="11">
-        <v>222241855</v>
+        <v>212290566</v>
       </c>
       <c r="AL63" s="11">
-        <v>212290566</v>
+        <v>224233996</v>
       </c>
       <c r="AM63" s="11">
-        <v>224233996</v>
+        <v>228850117</v>
       </c>
       <c r="AN63" s="11">
-        <v>228850117</v>
+        <v>228904000</v>
       </c>
       <c r="AO63" s="11">
-        <v>228904000</v>
+        <v>224127049</v>
       </c>
       <c r="AP63" s="11">
-        <v>224127049</v>
+        <v>218629501</v>
       </c>
       <c r="AQ63" s="11">
-        <v>218629501</v>
+        <v>225700765</v>
       </c>
       <c r="AR63" s="11">
-        <v>225700765</v>
+        <v>234829493</v>
       </c>
       <c r="AS63" s="11">
-        <v>234829493</v>
+        <v>230064953</v>
       </c>
       <c r="AT63" s="11">
-        <v>230064953</v>
+        <v>228141888</v>
       </c>
       <c r="AU63" s="11">
-        <v>228141888</v>
+        <v>276760047</v>
       </c>
       <c r="AV63" s="11">
-        <v>276760047</v>
+        <v>322909292</v>
       </c>
       <c r="AW63" s="11">
-        <v>322909292</v>
+        <v>354819008</v>
       </c>
       <c r="AX63" s="11">
-        <v>354819008</v>
+        <v>329731377</v>
       </c>
       <c r="AY63" s="11">
-        <v>329731377</v>
+        <v>341905983</v>
       </c>
       <c r="AZ63" s="11">
-        <v>341905983</v>
+        <v>318494253</v>
       </c>
       <c r="BA63" s="11">
-        <v>318494253</v>
+        <v>301995830</v>
       </c>
       <c r="BB63" s="11">
-        <v>301995830</v>
+        <v>291842105</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/dode/shekarbon/product/monthly_seprated.xlsx
+++ b/database/industries/dode/shekarbon/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB78B9-6EDD-453D-8C56-AC8763D671CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4BBBA3-F262-4FA0-AC18-DD5627039F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شکربن-کربن‌ ایران‌</t>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1483,95 +1483,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>3400</v>
       </c>
       <c r="Z11" s="11">
-        <v>3400</v>
+        <v>3530</v>
       </c>
       <c r="AA11" s="11">
-        <v>3530</v>
+        <v>2951</v>
       </c>
       <c r="AB11" s="11">
-        <v>2951</v>
+        <v>4040</v>
       </c>
       <c r="AC11" s="11">
-        <v>4040</v>
+        <v>3225</v>
       </c>
       <c r="AD11" s="11">
-        <v>3225</v>
+        <v>3438</v>
       </c>
       <c r="AE11" s="11">
-        <v>3438</v>
+        <v>4670</v>
       </c>
       <c r="AF11" s="11">
-        <v>4670</v>
+        <v>4320</v>
       </c>
       <c r="AG11" s="11">
-        <v>4320</v>
+        <v>4193</v>
       </c>
       <c r="AH11" s="11">
-        <v>4193</v>
+        <v>3610</v>
       </c>
       <c r="AI11" s="11">
-        <v>3610</v>
+        <v>3760</v>
       </c>
       <c r="AJ11" s="11">
-        <v>3760</v>
+        <v>4125</v>
       </c>
       <c r="AK11" s="11">
-        <v>4125</v>
+        <v>3924</v>
       </c>
       <c r="AL11" s="11">
-        <v>3924</v>
+        <v>4015</v>
       </c>
       <c r="AM11" s="11">
-        <v>4015</v>
+        <v>3683</v>
       </c>
       <c r="AN11" s="11">
-        <v>3683</v>
+        <v>4100</v>
       </c>
       <c r="AO11" s="11">
-        <v>4100</v>
+        <v>2715</v>
       </c>
       <c r="AP11" s="11">
-        <v>2715</v>
+        <v>3855</v>
       </c>
       <c r="AQ11" s="11">
-        <v>3855</v>
+        <v>3827</v>
       </c>
       <c r="AR11" s="11">
-        <v>3827</v>
+        <v>2999</v>
       </c>
       <c r="AS11" s="11">
-        <v>2999</v>
+        <v>3403</v>
       </c>
       <c r="AT11" s="11">
-        <v>3403</v>
+        <v>3890</v>
       </c>
       <c r="AU11" s="11">
-        <v>3890</v>
+        <v>3877</v>
       </c>
       <c r="AV11" s="11">
-        <v>3877</v>
+        <v>3354</v>
       </c>
       <c r="AW11" s="11">
-        <v>3354</v>
+        <v>3897</v>
       </c>
       <c r="AX11" s="11">
-        <v>3897</v>
+        <v>2874</v>
       </c>
       <c r="AY11" s="11">
-        <v>2874</v>
+        <v>4121</v>
       </c>
       <c r="AZ11" s="11">
-        <v>4121</v>
+        <v>3934</v>
       </c>
       <c r="BA11" s="11">
-        <v>3934</v>
+        <v>3832</v>
       </c>
       <c r="BB11" s="11">
-        <v>3832</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1641,94 +1641,94 @@
         <v>0</v>
       </c>
       <c r="Y12" s="13">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="Z12" s="13">
-        <v>3400</v>
+        <v>3530</v>
       </c>
       <c r="AA12" s="13">
-        <v>3530</v>
+        <v>2951</v>
       </c>
       <c r="AB12" s="13">
-        <v>2951</v>
+        <v>4040</v>
       </c>
       <c r="AC12" s="13">
-        <v>4040</v>
+        <v>3225</v>
       </c>
       <c r="AD12" s="13">
-        <v>3225</v>
+        <v>3438</v>
       </c>
       <c r="AE12" s="13">
-        <v>3438</v>
+        <v>4670</v>
       </c>
       <c r="AF12" s="13">
-        <v>4670</v>
+        <v>4320</v>
       </c>
       <c r="AG12" s="13">
-        <v>4320</v>
+        <v>4193</v>
       </c>
       <c r="AH12" s="13">
-        <v>4193</v>
+        <v>3610</v>
       </c>
       <c r="AI12" s="13">
-        <v>3610</v>
+        <v>3760</v>
       </c>
       <c r="AJ12" s="13">
-        <v>3760</v>
+        <v>4125</v>
       </c>
       <c r="AK12" s="13">
-        <v>4125</v>
+        <v>3924</v>
       </c>
       <c r="AL12" s="13">
-        <v>3924</v>
+        <v>4015</v>
       </c>
       <c r="AM12" s="13">
-        <v>4015</v>
+        <v>3683</v>
       </c>
       <c r="AN12" s="13">
-        <v>3683</v>
+        <v>4100</v>
       </c>
       <c r="AO12" s="13">
-        <v>4100</v>
+        <v>2715</v>
       </c>
       <c r="AP12" s="13">
-        <v>2715</v>
+        <v>3855</v>
       </c>
       <c r="AQ12" s="13">
-        <v>3855</v>
+        <v>3827</v>
       </c>
       <c r="AR12" s="13">
-        <v>3827</v>
+        <v>2999</v>
       </c>
       <c r="AS12" s="13">
-        <v>2999</v>
+        <v>3403</v>
       </c>
       <c r="AT12" s="13">
-        <v>3403</v>
+        <v>3890</v>
       </c>
       <c r="AU12" s="13">
-        <v>3890</v>
+        <v>3877</v>
       </c>
       <c r="AV12" s="13">
-        <v>3877</v>
+        <v>3354</v>
       </c>
       <c r="AW12" s="13">
-        <v>3354</v>
+        <v>3897</v>
       </c>
       <c r="AX12" s="13">
-        <v>3897</v>
+        <v>2874</v>
       </c>
       <c r="AY12" s="13">
-        <v>2874</v>
+        <v>4121</v>
       </c>
       <c r="AZ12" s="13">
-        <v>4121</v>
+        <v>3934</v>
       </c>
       <c r="BA12" s="13">
-        <v>3934</v>
+        <v>3832</v>
       </c>
       <c r="BB12" s="13">
-        <v>3832</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1856,8 +1856,8 @@
       <c r="X14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="11" t="s">
-        <v>58</v>
+      <c r="Y14" s="11">
+        <v>0</v>
       </c>
       <c r="Z14" s="11">
         <v>0</v>
@@ -1886,8 +1886,8 @@
       <c r="AH14" s="11">
         <v>0</v>
       </c>
-      <c r="AI14" s="11">
-        <v>0</v>
+      <c r="AI14" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ14" s="11" t="s">
         <v>58</v>
@@ -1916,8 +1916,8 @@
       <c r="AR14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS14" s="11" t="s">
-        <v>58</v>
+      <c r="AS14" s="11">
+        <v>0</v>
       </c>
       <c r="AT14" s="11">
         <v>0</v>
@@ -2227,8 +2227,8 @@
       <c r="X17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="17" t="s">
-        <v>58</v>
+      <c r="Y17" s="17">
+        <v>0</v>
       </c>
       <c r="Z17" s="17">
         <v>0</v>
@@ -2385,94 +2385,94 @@
         <v>0</v>
       </c>
       <c r="Y18" s="13">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="Z18" s="13">
-        <v>3400</v>
+        <v>3530</v>
       </c>
       <c r="AA18" s="13">
-        <v>3530</v>
+        <v>2951</v>
       </c>
       <c r="AB18" s="13">
-        <v>2951</v>
+        <v>4040</v>
       </c>
       <c r="AC18" s="13">
-        <v>4040</v>
+        <v>3225</v>
       </c>
       <c r="AD18" s="13">
-        <v>3225</v>
+        <v>3438</v>
       </c>
       <c r="AE18" s="13">
-        <v>3438</v>
+        <v>4670</v>
       </c>
       <c r="AF18" s="13">
-        <v>4670</v>
+        <v>4320</v>
       </c>
       <c r="AG18" s="13">
-        <v>4320</v>
+        <v>4193</v>
       </c>
       <c r="AH18" s="13">
-        <v>4193</v>
+        <v>3610</v>
       </c>
       <c r="AI18" s="13">
-        <v>3610</v>
+        <v>3760</v>
       </c>
       <c r="AJ18" s="13">
-        <v>3760</v>
+        <v>4125</v>
       </c>
       <c r="AK18" s="13">
-        <v>4125</v>
+        <v>3924</v>
       </c>
       <c r="AL18" s="13">
-        <v>3924</v>
+        <v>4015</v>
       </c>
       <c r="AM18" s="13">
-        <v>4015</v>
+        <v>3683</v>
       </c>
       <c r="AN18" s="13">
-        <v>3683</v>
+        <v>4100</v>
       </c>
       <c r="AO18" s="13">
-        <v>4100</v>
+        <v>2715</v>
       </c>
       <c r="AP18" s="13">
-        <v>2715</v>
+        <v>3855</v>
       </c>
       <c r="AQ18" s="13">
-        <v>3855</v>
+        <v>3827</v>
       </c>
       <c r="AR18" s="13">
-        <v>3827</v>
+        <v>2999</v>
       </c>
       <c r="AS18" s="13">
-        <v>2999</v>
+        <v>3403</v>
       </c>
       <c r="AT18" s="13">
-        <v>3403</v>
+        <v>3890</v>
       </c>
       <c r="AU18" s="13">
-        <v>3890</v>
+        <v>3877</v>
       </c>
       <c r="AV18" s="13">
-        <v>3877</v>
+        <v>3354</v>
       </c>
       <c r="AW18" s="13">
-        <v>3354</v>
+        <v>3897</v>
       </c>
       <c r="AX18" s="13">
-        <v>3897</v>
+        <v>2874</v>
       </c>
       <c r="AY18" s="13">
-        <v>2874</v>
+        <v>4121</v>
       </c>
       <c r="AZ18" s="13">
-        <v>4121</v>
+        <v>3934</v>
       </c>
       <c r="BA18" s="13">
-        <v>3934</v>
+        <v>3832</v>
       </c>
       <c r="BB18" s="13">
-        <v>3832</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2977,95 +2977,95 @@
       <c r="X25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y25" s="11" t="s">
-        <v>58</v>
+      <c r="Y25" s="11">
+        <v>2595</v>
       </c>
       <c r="Z25" s="11">
-        <v>2595</v>
+        <v>2615</v>
       </c>
       <c r="AA25" s="11">
-        <v>2615</v>
+        <v>2739</v>
       </c>
       <c r="AB25" s="11">
-        <v>2739</v>
+        <v>3374</v>
       </c>
       <c r="AC25" s="11">
-        <v>3374</v>
+        <v>2940</v>
       </c>
       <c r="AD25" s="11">
-        <v>2940</v>
+        <v>2874</v>
       </c>
       <c r="AE25" s="11">
+        <v>3102</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>3396</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>3790</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>1917</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>3437</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>3260</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>2953</v>
+      </c>
+      <c r="AL25" s="11">
+        <v>2308</v>
+      </c>
+      <c r="AM25" s="11">
         <v>2874</v>
       </c>
-      <c r="AF25" s="11">
-        <v>3102</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>3396</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>3790</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>1917</v>
-      </c>
-      <c r="AJ25" s="11">
-        <v>3437</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>3260</v>
-      </c>
-      <c r="AL25" s="11">
-        <v>2953</v>
-      </c>
-      <c r="AM25" s="11">
-        <v>2308</v>
-      </c>
       <c r="AN25" s="11">
-        <v>2874</v>
+        <v>2370</v>
       </c>
       <c r="AO25" s="11">
-        <v>2370</v>
+        <v>2519</v>
       </c>
       <c r="AP25" s="11">
-        <v>2519</v>
+        <v>2083</v>
       </c>
       <c r="AQ25" s="11">
-        <v>2083</v>
+        <v>2407</v>
       </c>
       <c r="AR25" s="11">
-        <v>2407</v>
+        <v>1877</v>
       </c>
       <c r="AS25" s="11">
-        <v>1877</v>
+        <v>2743</v>
       </c>
       <c r="AT25" s="11">
-        <v>2743</v>
+        <v>2593</v>
       </c>
       <c r="AU25" s="11">
-        <v>2593</v>
+        <v>2669</v>
       </c>
       <c r="AV25" s="11">
-        <v>2669</v>
+        <v>2767</v>
       </c>
       <c r="AW25" s="11">
-        <v>2767</v>
+        <v>3203</v>
       </c>
       <c r="AX25" s="11">
-        <v>3203</v>
+        <v>3075</v>
       </c>
       <c r="AY25" s="11">
-        <v>3075</v>
+        <v>2016</v>
       </c>
       <c r="AZ25" s="11">
-        <v>2016</v>
+        <v>2671</v>
       </c>
       <c r="BA25" s="11">
-        <v>2671</v>
+        <v>2586</v>
       </c>
       <c r="BB25" s="11">
-        <v>2586</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3135,94 +3135,94 @@
         <v>0</v>
       </c>
       <c r="Y26" s="13">
-        <v>0</v>
+        <v>2595</v>
       </c>
       <c r="Z26" s="13">
-        <v>2595</v>
+        <v>2615</v>
       </c>
       <c r="AA26" s="13">
-        <v>2615</v>
+        <v>2739</v>
       </c>
       <c r="AB26" s="13">
-        <v>2739</v>
+        <v>3374</v>
       </c>
       <c r="AC26" s="13">
-        <v>3374</v>
+        <v>2940</v>
       </c>
       <c r="AD26" s="13">
-        <v>2940</v>
+        <v>2874</v>
       </c>
       <c r="AE26" s="13">
+        <v>3102</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>3396</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>3790</v>
+      </c>
+      <c r="AH26" s="13">
+        <v>1917</v>
+      </c>
+      <c r="AI26" s="13">
+        <v>3437</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>3260</v>
+      </c>
+      <c r="AK26" s="13">
+        <v>2953</v>
+      </c>
+      <c r="AL26" s="13">
+        <v>2308</v>
+      </c>
+      <c r="AM26" s="13">
         <v>2874</v>
       </c>
-      <c r="AF26" s="13">
-        <v>3102</v>
-      </c>
-      <c r="AG26" s="13">
-        <v>3396</v>
-      </c>
-      <c r="AH26" s="13">
-        <v>3790</v>
-      </c>
-      <c r="AI26" s="13">
-        <v>1917</v>
-      </c>
-      <c r="AJ26" s="13">
-        <v>3437</v>
-      </c>
-      <c r="AK26" s="13">
-        <v>3260</v>
-      </c>
-      <c r="AL26" s="13">
-        <v>2953</v>
-      </c>
-      <c r="AM26" s="13">
-        <v>2308</v>
-      </c>
       <c r="AN26" s="13">
-        <v>2874</v>
+        <v>2370</v>
       </c>
       <c r="AO26" s="13">
-        <v>2370</v>
+        <v>2519</v>
       </c>
       <c r="AP26" s="13">
-        <v>2519</v>
+        <v>2083</v>
       </c>
       <c r="AQ26" s="13">
-        <v>2083</v>
+        <v>2407</v>
       </c>
       <c r="AR26" s="13">
-        <v>2407</v>
+        <v>1877</v>
       </c>
       <c r="AS26" s="13">
-        <v>1877</v>
+        <v>2743</v>
       </c>
       <c r="AT26" s="13">
-        <v>2743</v>
+        <v>2593</v>
       </c>
       <c r="AU26" s="13">
-        <v>2593</v>
+        <v>2669</v>
       </c>
       <c r="AV26" s="13">
-        <v>2669</v>
+        <v>2767</v>
       </c>
       <c r="AW26" s="13">
-        <v>2767</v>
+        <v>3203</v>
       </c>
       <c r="AX26" s="13">
-        <v>3203</v>
+        <v>3075</v>
       </c>
       <c r="AY26" s="13">
-        <v>3075</v>
+        <v>2016</v>
       </c>
       <c r="AZ26" s="13">
-        <v>2016</v>
+        <v>2671</v>
       </c>
       <c r="BA26" s="13">
-        <v>2671</v>
+        <v>2586</v>
       </c>
       <c r="BB26" s="13">
-        <v>2586</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3350,95 +3350,95 @@
       <c r="X28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y28" s="11" t="s">
-        <v>58</v>
+      <c r="Y28" s="11">
+        <v>1466</v>
       </c>
       <c r="Z28" s="11">
-        <v>1466</v>
+        <v>1375</v>
       </c>
       <c r="AA28" s="11">
-        <v>1375</v>
+        <v>591</v>
       </c>
       <c r="AB28" s="11">
-        <v>591</v>
+        <v>853</v>
       </c>
       <c r="AC28" s="11">
-        <v>853</v>
+        <v>738</v>
       </c>
       <c r="AD28" s="11">
-        <v>738</v>
+        <v>944</v>
       </c>
       <c r="AE28" s="11">
-        <v>944</v>
+        <v>1334</v>
       </c>
       <c r="AF28" s="11">
-        <v>1334</v>
+        <v>393</v>
       </c>
       <c r="AG28" s="11">
-        <v>393</v>
+        <v>1055</v>
       </c>
       <c r="AH28" s="11">
-        <v>1055</v>
+        <v>949</v>
       </c>
       <c r="AI28" s="11">
-        <v>949</v>
+        <v>798</v>
       </c>
       <c r="AJ28" s="11">
-        <v>798</v>
+        <v>530</v>
       </c>
       <c r="AK28" s="11">
-        <v>530</v>
+        <v>453</v>
       </c>
       <c r="AL28" s="11">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="AM28" s="11">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="AN28" s="11">
-        <v>500</v>
+        <v>732</v>
       </c>
       <c r="AO28" s="11">
-        <v>732</v>
+        <v>861</v>
       </c>
       <c r="AP28" s="11">
-        <v>861</v>
+        <v>1046</v>
       </c>
       <c r="AQ28" s="11">
-        <v>1046</v>
+        <v>868</v>
       </c>
       <c r="AR28" s="11">
-        <v>868</v>
+        <v>1478</v>
       </c>
       <c r="AS28" s="11">
-        <v>1478</v>
+        <v>1769</v>
       </c>
       <c r="AT28" s="11">
-        <v>1769</v>
+        <v>846</v>
       </c>
       <c r="AU28" s="11">
-        <v>846</v>
+        <v>904</v>
       </c>
       <c r="AV28" s="11">
-        <v>904</v>
+        <v>1210</v>
       </c>
       <c r="AW28" s="11">
-        <v>1210</v>
+        <v>443</v>
       </c>
       <c r="AX28" s="11">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="AY28" s="11">
-        <v>468</v>
+        <v>957</v>
       </c>
       <c r="AZ28" s="11">
-        <v>957</v>
+        <v>1439</v>
       </c>
       <c r="BA28" s="11">
-        <v>1439</v>
+        <v>912</v>
       </c>
       <c r="BB28" s="11">
-        <v>912</v>
+        <v>699</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3508,94 +3508,94 @@
         <v>0</v>
       </c>
       <c r="Y29" s="13">
-        <v>0</v>
+        <v>1466</v>
       </c>
       <c r="Z29" s="13">
-        <v>1466</v>
+        <v>1375</v>
       </c>
       <c r="AA29" s="13">
-        <v>1375</v>
+        <v>591</v>
       </c>
       <c r="AB29" s="13">
-        <v>591</v>
+        <v>853</v>
       </c>
       <c r="AC29" s="13">
-        <v>853</v>
+        <v>738</v>
       </c>
       <c r="AD29" s="13">
-        <v>738</v>
+        <v>944</v>
       </c>
       <c r="AE29" s="13">
-        <v>944</v>
+        <v>1334</v>
       </c>
       <c r="AF29" s="13">
-        <v>1334</v>
+        <v>393</v>
       </c>
       <c r="AG29" s="13">
-        <v>393</v>
+        <v>1055</v>
       </c>
       <c r="AH29" s="13">
-        <v>1055</v>
+        <v>949</v>
       </c>
       <c r="AI29" s="13">
-        <v>949</v>
+        <v>798</v>
       </c>
       <c r="AJ29" s="13">
-        <v>798</v>
+        <v>530</v>
       </c>
       <c r="AK29" s="13">
-        <v>530</v>
+        <v>453</v>
       </c>
       <c r="AL29" s="13">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="AM29" s="13">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="AN29" s="13">
-        <v>500</v>
+        <v>732</v>
       </c>
       <c r="AO29" s="13">
-        <v>732</v>
+        <v>861</v>
       </c>
       <c r="AP29" s="13">
-        <v>861</v>
+        <v>1046</v>
       </c>
       <c r="AQ29" s="13">
-        <v>1046</v>
+        <v>868</v>
       </c>
       <c r="AR29" s="13">
-        <v>868</v>
+        <v>1478</v>
       </c>
       <c r="AS29" s="13">
-        <v>1478</v>
+        <v>1769</v>
       </c>
       <c r="AT29" s="13">
-        <v>1769</v>
+        <v>846</v>
       </c>
       <c r="AU29" s="13">
-        <v>846</v>
+        <v>904</v>
       </c>
       <c r="AV29" s="13">
-        <v>904</v>
+        <v>1210</v>
       </c>
       <c r="AW29" s="13">
-        <v>1210</v>
+        <v>443</v>
       </c>
       <c r="AX29" s="13">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="AY29" s="13">
-        <v>468</v>
+        <v>957</v>
       </c>
       <c r="AZ29" s="13">
-        <v>957</v>
+        <v>1439</v>
       </c>
       <c r="BA29" s="13">
-        <v>1439</v>
+        <v>912</v>
       </c>
       <c r="BB29" s="13">
-        <v>912</v>
+        <v>699</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3721,8 +3721,8 @@
       <c r="X31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="17" t="s">
-        <v>58</v>
+      <c r="Y31" s="17">
+        <v>0</v>
       </c>
       <c r="Z31" s="17">
         <v>0</v>
@@ -3937,8 +3937,8 @@
       <c r="X33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>58</v>
+      <c r="Y33" s="11">
+        <v>0</v>
       </c>
       <c r="Z33" s="11">
         <v>0</v>
@@ -3964,8 +3964,8 @@
       <c r="AG33" s="11">
         <v>0</v>
       </c>
-      <c r="AH33" s="11">
-        <v>0</v>
+      <c r="AH33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI33" s="11" t="s">
         <v>58</v>
@@ -4000,12 +4000,12 @@
       <c r="AS33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU33" s="11">
+      <c r="AT33" s="11">
         <v>-9</v>
       </c>
+      <c r="AU33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV33" s="11" t="s">
         <v>58</v>
       </c>
@@ -4021,11 +4021,11 @@
       <c r="AZ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB33" s="11">
+      <c r="BA33" s="11">
         <v>-10</v>
+      </c>
+      <c r="BB33" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4094,8 +4094,8 @@
       <c r="X34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="13" t="s">
-        <v>58</v>
+      <c r="Y34" s="13">
+        <v>0</v>
       </c>
       <c r="Z34" s="13">
         <v>0</v>
@@ -4158,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="AT34" s="13">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AU34" s="13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="13">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="BA34" s="13">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="BB34" s="13">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4252,94 +4252,94 @@
         <v>0</v>
       </c>
       <c r="Y35" s="17">
-        <v>0</v>
+        <v>4061</v>
       </c>
       <c r="Z35" s="17">
-        <v>4061</v>
+        <v>3990</v>
       </c>
       <c r="AA35" s="17">
-        <v>3990</v>
+        <v>3330</v>
       </c>
       <c r="AB35" s="17">
-        <v>3330</v>
+        <v>4227</v>
       </c>
       <c r="AC35" s="17">
-        <v>4227</v>
+        <v>3678</v>
       </c>
       <c r="AD35" s="17">
-        <v>3678</v>
+        <v>3818</v>
       </c>
       <c r="AE35" s="17">
-        <v>3818</v>
+        <v>4436</v>
       </c>
       <c r="AF35" s="17">
-        <v>4436</v>
+        <v>3789</v>
       </c>
       <c r="AG35" s="17">
-        <v>3789</v>
+        <v>4845</v>
       </c>
       <c r="AH35" s="17">
-        <v>4845</v>
+        <v>2866</v>
       </c>
       <c r="AI35" s="17">
-        <v>2866</v>
+        <v>4235</v>
       </c>
       <c r="AJ35" s="17">
-        <v>4235</v>
+        <v>3790</v>
       </c>
       <c r="AK35" s="17">
-        <v>3790</v>
+        <v>3406</v>
       </c>
       <c r="AL35" s="17">
-        <v>3406</v>
+        <v>2735</v>
       </c>
       <c r="AM35" s="17">
-        <v>2735</v>
+        <v>3374</v>
       </c>
       <c r="AN35" s="17">
-        <v>3374</v>
+        <v>3102</v>
       </c>
       <c r="AO35" s="17">
-        <v>3102</v>
+        <v>3380</v>
       </c>
       <c r="AP35" s="17">
-        <v>3380</v>
+        <v>3129</v>
       </c>
       <c r="AQ35" s="17">
-        <v>3129</v>
+        <v>3275</v>
       </c>
       <c r="AR35" s="17">
-        <v>3275</v>
+        <v>3355</v>
       </c>
       <c r="AS35" s="17">
-        <v>3355</v>
+        <v>4512</v>
       </c>
       <c r="AT35" s="17">
-        <v>4512</v>
+        <v>3430</v>
       </c>
       <c r="AU35" s="17">
-        <v>3430</v>
+        <v>3573</v>
       </c>
       <c r="AV35" s="17">
-        <v>3573</v>
+        <v>3977</v>
       </c>
       <c r="AW35" s="17">
-        <v>3977</v>
+        <v>3646</v>
       </c>
       <c r="AX35" s="17">
-        <v>3646</v>
+        <v>3543</v>
       </c>
       <c r="AY35" s="17">
-        <v>3543</v>
+        <v>2973</v>
       </c>
       <c r="AZ35" s="17">
-        <v>2973</v>
+        <v>4110</v>
       </c>
       <c r="BA35" s="17">
-        <v>4110</v>
+        <v>3488</v>
       </c>
       <c r="BB35" s="17">
-        <v>3488</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4844,95 +4844,95 @@
       <c r="X42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y42" s="11" t="s">
-        <v>58</v>
+      <c r="Y42" s="11">
+        <v>224973</v>
       </c>
       <c r="Z42" s="11">
-        <v>224973</v>
+        <v>276924</v>
       </c>
       <c r="AA42" s="11">
-        <v>276924</v>
+        <v>324272</v>
       </c>
       <c r="AB42" s="11">
-        <v>324272</v>
+        <v>430026</v>
       </c>
       <c r="AC42" s="11">
-        <v>430026</v>
+        <v>414711</v>
       </c>
       <c r="AD42" s="11">
-        <v>414711</v>
+        <v>460685</v>
       </c>
       <c r="AE42" s="11">
-        <v>460685</v>
+        <v>559680</v>
       </c>
       <c r="AF42" s="11">
-        <v>559680</v>
+        <v>654444</v>
       </c>
       <c r="AG42" s="11">
-        <v>654444</v>
+        <v>781104</v>
       </c>
       <c r="AH42" s="11">
-        <v>781104</v>
+        <v>413878</v>
       </c>
       <c r="AI42" s="11">
-        <v>413878</v>
+        <v>796529</v>
       </c>
       <c r="AJ42" s="11">
-        <v>796529</v>
+        <v>752983</v>
       </c>
       <c r="AK42" s="11">
-        <v>752983</v>
+        <v>692149</v>
       </c>
       <c r="AL42" s="11">
-        <v>692149</v>
+        <v>558330</v>
       </c>
       <c r="AM42" s="11">
-        <v>558330</v>
+        <v>715917</v>
       </c>
       <c r="AN42" s="11">
-        <v>715917</v>
+        <v>608406</v>
       </c>
       <c r="AO42" s="11">
-        <v>608406</v>
+        <v>668905</v>
       </c>
       <c r="AP42" s="11">
-        <v>668905</v>
+        <v>553700</v>
       </c>
       <c r="AQ42" s="11">
-        <v>553700</v>
+        <v>642062</v>
       </c>
       <c r="AR42" s="11">
-        <v>642062</v>
+        <v>522801</v>
       </c>
       <c r="AS42" s="11">
-        <v>522801</v>
+        <v>829210</v>
       </c>
       <c r="AT42" s="11">
-        <v>829210</v>
+        <v>914535</v>
       </c>
       <c r="AU42" s="11">
-        <v>914535</v>
+        <v>992568</v>
       </c>
       <c r="AV42" s="11">
-        <v>992568</v>
+        <v>1166594</v>
       </c>
       <c r="AW42" s="11">
-        <v>1166594</v>
+        <v>1413550</v>
       </c>
       <c r="AX42" s="11">
-        <v>1413550</v>
+        <v>1369807</v>
       </c>
       <c r="AY42" s="11">
-        <v>1369807</v>
+        <v>858016</v>
       </c>
       <c r="AZ42" s="11">
-        <v>858016</v>
+        <v>1023713</v>
       </c>
       <c r="BA42" s="11">
-        <v>1023713</v>
+        <v>963817</v>
       </c>
       <c r="BB42" s="11">
-        <v>963817</v>
+        <v>1127483</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5002,94 +5002,94 @@
         <v>0</v>
       </c>
       <c r="Y43" s="13">
-        <v>0</v>
+        <v>224973</v>
       </c>
       <c r="Z43" s="13">
-        <v>224973</v>
+        <v>276924</v>
       </c>
       <c r="AA43" s="13">
-        <v>276924</v>
+        <v>324272</v>
       </c>
       <c r="AB43" s="13">
-        <v>324272</v>
+        <v>430026</v>
       </c>
       <c r="AC43" s="13">
-        <v>430026</v>
+        <v>414711</v>
       </c>
       <c r="AD43" s="13">
-        <v>414711</v>
+        <v>460685</v>
       </c>
       <c r="AE43" s="13">
-        <v>460685</v>
+        <v>559680</v>
       </c>
       <c r="AF43" s="13">
-        <v>559680</v>
+        <v>654444</v>
       </c>
       <c r="AG43" s="13">
-        <v>654444</v>
+        <v>781104</v>
       </c>
       <c r="AH43" s="13">
-        <v>781104</v>
+        <v>413878</v>
       </c>
       <c r="AI43" s="13">
-        <v>413878</v>
+        <v>796529</v>
       </c>
       <c r="AJ43" s="13">
-        <v>796529</v>
+        <v>752983</v>
       </c>
       <c r="AK43" s="13">
-        <v>752983</v>
+        <v>692149</v>
       </c>
       <c r="AL43" s="13">
-        <v>692149</v>
+        <v>558330</v>
       </c>
       <c r="AM43" s="13">
-        <v>558330</v>
+        <v>715917</v>
       </c>
       <c r="AN43" s="13">
-        <v>715917</v>
+        <v>608406</v>
       </c>
       <c r="AO43" s="13">
-        <v>608406</v>
+        <v>668905</v>
       </c>
       <c r="AP43" s="13">
-        <v>668905</v>
+        <v>553700</v>
       </c>
       <c r="AQ43" s="13">
-        <v>553700</v>
+        <v>642062</v>
       </c>
       <c r="AR43" s="13">
-        <v>642062</v>
+        <v>522801</v>
       </c>
       <c r="AS43" s="13">
-        <v>522801</v>
+        <v>829210</v>
       </c>
       <c r="AT43" s="13">
-        <v>829210</v>
+        <v>914535</v>
       </c>
       <c r="AU43" s="13">
-        <v>914535</v>
+        <v>992568</v>
       </c>
       <c r="AV43" s="13">
-        <v>992568</v>
+        <v>1166594</v>
       </c>
       <c r="AW43" s="13">
-        <v>1166594</v>
+        <v>1413550</v>
       </c>
       <c r="AX43" s="13">
-        <v>1413550</v>
+        <v>1369807</v>
       </c>
       <c r="AY43" s="13">
-        <v>1369807</v>
+        <v>858016</v>
       </c>
       <c r="AZ43" s="13">
-        <v>858016</v>
+        <v>1023713</v>
       </c>
       <c r="BA43" s="13">
-        <v>1023713</v>
+        <v>963817</v>
       </c>
       <c r="BB43" s="13">
-        <v>963817</v>
+        <v>1127483</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5217,95 +5217,95 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>91339</v>
       </c>
       <c r="Z45" s="11">
-        <v>91339</v>
+        <v>102827</v>
       </c>
       <c r="AA45" s="11">
-        <v>102827</v>
+        <v>51542</v>
       </c>
       <c r="AB45" s="11">
-        <v>51542</v>
+        <v>98090</v>
       </c>
       <c r="AC45" s="11">
-        <v>98090</v>
+        <v>96759</v>
       </c>
       <c r="AD45" s="11">
-        <v>96759</v>
+        <v>135160</v>
       </c>
       <c r="AE45" s="11">
-        <v>135160</v>
+        <v>244392</v>
       </c>
       <c r="AF45" s="11">
-        <v>244392</v>
+        <v>72577</v>
       </c>
       <c r="AG45" s="11">
-        <v>72577</v>
+        <v>213033</v>
       </c>
       <c r="AH45" s="11">
-        <v>213033</v>
+        <v>209645</v>
       </c>
       <c r="AI45" s="11">
-        <v>209645</v>
+        <v>177349</v>
       </c>
       <c r="AJ45" s="11">
-        <v>177349</v>
+        <v>112514</v>
       </c>
       <c r="AK45" s="11">
-        <v>112514</v>
+        <v>101578</v>
       </c>
       <c r="AL45" s="11">
-        <v>101578</v>
+        <v>97719</v>
       </c>
       <c r="AM45" s="11">
-        <v>97719</v>
+        <v>114452</v>
       </c>
       <c r="AN45" s="11">
-        <v>114452</v>
+        <v>164061</v>
       </c>
       <c r="AO45" s="11">
-        <v>164061</v>
+        <v>188240</v>
       </c>
       <c r="AP45" s="11">
-        <v>188240</v>
+        <v>236083</v>
       </c>
       <c r="AQ45" s="11">
-        <v>236083</v>
+        <v>203832</v>
       </c>
       <c r="AR45" s="11">
-        <v>203832</v>
+        <v>340036</v>
       </c>
       <c r="AS45" s="11">
-        <v>340036</v>
+        <v>403583</v>
       </c>
       <c r="AT45" s="11">
-        <v>403583</v>
+        <v>234139</v>
       </c>
       <c r="AU45" s="11">
-        <v>234139</v>
+        <v>291910</v>
       </c>
       <c r="AV45" s="11">
-        <v>291910</v>
+        <v>429331</v>
       </c>
       <c r="AW45" s="11">
-        <v>429331</v>
+        <v>146071</v>
       </c>
       <c r="AX45" s="11">
-        <v>146071</v>
+        <v>160012</v>
       </c>
       <c r="AY45" s="11">
-        <v>160012</v>
+        <v>304799</v>
       </c>
       <c r="AZ45" s="11">
-        <v>304799</v>
+        <v>434572</v>
       </c>
       <c r="BA45" s="11">
-        <v>434572</v>
+        <v>266160</v>
       </c>
       <c r="BB45" s="11">
-        <v>266160</v>
+        <v>190974</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5375,94 +5375,94 @@
         <v>0</v>
       </c>
       <c r="Y46" s="13">
-        <v>0</v>
+        <v>91339</v>
       </c>
       <c r="Z46" s="13">
-        <v>91339</v>
+        <v>102827</v>
       </c>
       <c r="AA46" s="13">
-        <v>102827</v>
+        <v>51542</v>
       </c>
       <c r="AB46" s="13">
-        <v>51542</v>
+        <v>98090</v>
       </c>
       <c r="AC46" s="13">
-        <v>98090</v>
+        <v>96759</v>
       </c>
       <c r="AD46" s="13">
-        <v>96759</v>
+        <v>135160</v>
       </c>
       <c r="AE46" s="13">
-        <v>135160</v>
+        <v>244392</v>
       </c>
       <c r="AF46" s="13">
-        <v>244392</v>
+        <v>72577</v>
       </c>
       <c r="AG46" s="13">
-        <v>72577</v>
+        <v>213033</v>
       </c>
       <c r="AH46" s="13">
-        <v>213033</v>
+        <v>209645</v>
       </c>
       <c r="AI46" s="13">
-        <v>209645</v>
+        <v>177349</v>
       </c>
       <c r="AJ46" s="13">
-        <v>177349</v>
+        <v>112514</v>
       </c>
       <c r="AK46" s="13">
-        <v>112514</v>
+        <v>101578</v>
       </c>
       <c r="AL46" s="13">
-        <v>101578</v>
+        <v>97719</v>
       </c>
       <c r="AM46" s="13">
-        <v>97719</v>
+        <v>114452</v>
       </c>
       <c r="AN46" s="13">
-        <v>114452</v>
+        <v>164061</v>
       </c>
       <c r="AO46" s="13">
-        <v>164061</v>
+        <v>188240</v>
       </c>
       <c r="AP46" s="13">
-        <v>188240</v>
+        <v>236083</v>
       </c>
       <c r="AQ46" s="13">
-        <v>236083</v>
+        <v>203832</v>
       </c>
       <c r="AR46" s="13">
-        <v>203832</v>
+        <v>340036</v>
       </c>
       <c r="AS46" s="13">
-        <v>340036</v>
+        <v>403583</v>
       </c>
       <c r="AT46" s="13">
-        <v>403583</v>
+        <v>234139</v>
       </c>
       <c r="AU46" s="13">
-        <v>234139</v>
+        <v>291910</v>
       </c>
       <c r="AV46" s="13">
-        <v>291910</v>
+        <v>429331</v>
       </c>
       <c r="AW46" s="13">
-        <v>429331</v>
+        <v>146071</v>
       </c>
       <c r="AX46" s="13">
-        <v>146071</v>
+        <v>160012</v>
       </c>
       <c r="AY46" s="13">
-        <v>160012</v>
+        <v>304799</v>
       </c>
       <c r="AZ46" s="13">
-        <v>304799</v>
+        <v>434572</v>
       </c>
       <c r="BA46" s="13">
-        <v>434572</v>
+        <v>266160</v>
       </c>
       <c r="BB46" s="13">
-        <v>266160</v>
+        <v>190974</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5590,8 +5590,8 @@
       <c r="X48" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="17" t="s">
-        <v>58</v>
+      <c r="Y48" s="17">
+        <v>0</v>
       </c>
       <c r="Z48" s="17">
         <v>0</v>
@@ -5806,8 +5806,8 @@
       <c r="X50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y50" s="11" t="s">
-        <v>58</v>
+      <c r="Y50" s="11">
+        <v>0</v>
       </c>
       <c r="Z50" s="11">
         <v>0</v>
@@ -5833,8 +5833,8 @@
       <c r="AG50" s="11">
         <v>0</v>
       </c>
-      <c r="AH50" s="11">
-        <v>0</v>
+      <c r="AH50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI50" s="11" t="s">
         <v>58</v>
@@ -5869,11 +5869,11 @@
       <c r="AS50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT50" s="11" t="s">
-        <v>58</v>
+      <c r="AT50" s="11">
+        <v>-3399</v>
       </c>
       <c r="AU50" s="11">
-        <v>-3399</v>
+        <v>0</v>
       </c>
       <c r="AV50" s="11">
         <v>0</v>
@@ -5891,10 +5891,10 @@
         <v>0</v>
       </c>
       <c r="BA50" s="11">
-        <v>0</v>
+        <v>-3387</v>
       </c>
       <c r="BB50" s="11">
-        <v>-3387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -5965,8 +5965,8 @@
       <c r="X51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="13" t="s">
-        <v>58</v>
+      <c r="Y51" s="13">
+        <v>0</v>
       </c>
       <c r="Z51" s="13">
         <v>0</v>
@@ -6029,10 +6029,10 @@
         <v>0</v>
       </c>
       <c r="AT51" s="13">
-        <v>0</v>
+        <v>-3399</v>
       </c>
       <c r="AU51" s="13">
-        <v>-3399</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="13">
         <v>0</v>
@@ -6050,10 +6050,10 @@
         <v>0</v>
       </c>
       <c r="BA51" s="13">
-        <v>0</v>
+        <v>-3387</v>
       </c>
       <c r="BB51" s="13">
-        <v>-3387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6181,8 +6181,8 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>0</v>
       </c>
       <c r="Z53" s="11">
         <v>0</v>
@@ -6339,94 +6339,94 @@
         <v>0</v>
       </c>
       <c r="Y54" s="13">
-        <v>0</v>
+        <v>316312</v>
       </c>
       <c r="Z54" s="13">
-        <v>316312</v>
+        <v>379751</v>
       </c>
       <c r="AA54" s="13">
-        <v>379751</v>
+        <v>375814</v>
       </c>
       <c r="AB54" s="13">
-        <v>375814</v>
+        <v>528116</v>
       </c>
       <c r="AC54" s="13">
-        <v>528116</v>
+        <v>511470</v>
       </c>
       <c r="AD54" s="13">
-        <v>511470</v>
+        <v>595845</v>
       </c>
       <c r="AE54" s="13">
-        <v>595845</v>
+        <v>804072</v>
       </c>
       <c r="AF54" s="13">
-        <v>804072</v>
+        <v>727021</v>
       </c>
       <c r="AG54" s="13">
-        <v>727021</v>
+        <v>994137</v>
       </c>
       <c r="AH54" s="13">
-        <v>994137</v>
+        <v>623523</v>
       </c>
       <c r="AI54" s="13">
-        <v>623523</v>
+        <v>973878</v>
       </c>
       <c r="AJ54" s="13">
-        <v>973878</v>
+        <v>865497</v>
       </c>
       <c r="AK54" s="13">
-        <v>865497</v>
+        <v>793727</v>
       </c>
       <c r="AL54" s="13">
-        <v>793727</v>
+        <v>656049</v>
       </c>
       <c r="AM54" s="13">
-        <v>656049</v>
+        <v>830369</v>
       </c>
       <c r="AN54" s="13">
-        <v>830369</v>
+        <v>772467</v>
       </c>
       <c r="AO54" s="13">
-        <v>772467</v>
+        <v>857145</v>
       </c>
       <c r="AP54" s="13">
-        <v>857145</v>
+        <v>789783</v>
       </c>
       <c r="AQ54" s="13">
-        <v>789783</v>
+        <v>845894</v>
       </c>
       <c r="AR54" s="13">
-        <v>845894</v>
+        <v>862837</v>
       </c>
       <c r="AS54" s="13">
-        <v>862837</v>
+        <v>1232793</v>
       </c>
       <c r="AT54" s="13">
-        <v>1232793</v>
+        <v>1145275</v>
       </c>
       <c r="AU54" s="13">
-        <v>1145275</v>
+        <v>1284478</v>
       </c>
       <c r="AV54" s="13">
-        <v>1284478</v>
+        <v>1595925</v>
       </c>
       <c r="AW54" s="13">
-        <v>1595925</v>
+        <v>1559621</v>
       </c>
       <c r="AX54" s="13">
-        <v>1559621</v>
+        <v>1529819</v>
       </c>
       <c r="AY54" s="13">
-        <v>1529819</v>
+        <v>1162815</v>
       </c>
       <c r="AZ54" s="13">
-        <v>1162815</v>
+        <v>1458285</v>
       </c>
       <c r="BA54" s="13">
-        <v>1458285</v>
+        <v>1226590</v>
       </c>
       <c r="BB54" s="13">
-        <v>1226590</v>
+        <v>1318457</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6931,95 +6931,95 @@
       <c r="X61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="11" t="s">
-        <v>58</v>
+      <c r="Y61" s="11">
+        <v>86694798</v>
       </c>
       <c r="Z61" s="11">
-        <v>86694798</v>
+        <v>105898279</v>
       </c>
       <c r="AA61" s="11">
-        <v>105898279</v>
+        <v>118390654</v>
       </c>
       <c r="AB61" s="11">
-        <v>118390654</v>
+        <v>127452875</v>
       </c>
       <c r="AC61" s="11">
-        <v>127452875</v>
+        <v>141058163</v>
       </c>
       <c r="AD61" s="11">
-        <v>141058163</v>
+        <v>160294015</v>
       </c>
       <c r="AE61" s="11">
-        <v>160294015</v>
+        <v>180425532</v>
       </c>
       <c r="AF61" s="11">
-        <v>180425532</v>
+        <v>192710247</v>
       </c>
       <c r="AG61" s="11">
-        <v>192710247</v>
+        <v>206096042</v>
       </c>
       <c r="AH61" s="11">
-        <v>206096042</v>
+        <v>215898800</v>
       </c>
       <c r="AI61" s="11">
-        <v>215898800</v>
+        <v>231751237</v>
       </c>
       <c r="AJ61" s="11">
-        <v>231751237</v>
+        <v>230976380</v>
       </c>
       <c r="AK61" s="11">
-        <v>230976380</v>
+        <v>234388419</v>
       </c>
       <c r="AL61" s="11">
-        <v>234388419</v>
+        <v>241910745</v>
       </c>
       <c r="AM61" s="11">
-        <v>241910745</v>
+        <v>249101253</v>
       </c>
       <c r="AN61" s="11">
-        <v>249101253</v>
+        <v>256711392</v>
       </c>
       <c r="AO61" s="11">
-        <v>256711392</v>
+        <v>265543867</v>
       </c>
       <c r="AP61" s="11">
-        <v>265543867</v>
+        <v>265818531</v>
       </c>
       <c r="AQ61" s="11">
-        <v>265818531</v>
+        <v>266747819</v>
       </c>
       <c r="AR61" s="11">
-        <v>266747819</v>
+        <v>278530101</v>
       </c>
       <c r="AS61" s="11">
-        <v>278530101</v>
+        <v>302300401</v>
       </c>
       <c r="AT61" s="11">
-        <v>302300401</v>
+        <v>352693791</v>
       </c>
       <c r="AU61" s="11">
-        <v>352693791</v>
+        <v>371887598</v>
       </c>
       <c r="AV61" s="11">
-        <v>371887598</v>
+        <v>421609686</v>
       </c>
       <c r="AW61" s="11">
-        <v>421609686</v>
+        <v>441320637</v>
       </c>
       <c r="AX61" s="11">
-        <v>441320637</v>
+        <v>445465691</v>
       </c>
       <c r="AY61" s="11">
-        <v>445465691</v>
+        <v>425603175</v>
       </c>
       <c r="AZ61" s="11">
-        <v>425603175</v>
+        <v>383269562</v>
       </c>
       <c r="BA61" s="11">
-        <v>383269562</v>
+        <v>372705723</v>
       </c>
       <c r="BB61" s="11">
-        <v>372705723</v>
+        <v>355336590</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7147,95 +7147,95 @@
       <c r="X63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>58</v>
+      <c r="Y63" s="11">
+        <v>62304911</v>
       </c>
       <c r="Z63" s="11">
-        <v>62304911</v>
+        <v>74783273</v>
       </c>
       <c r="AA63" s="11">
-        <v>74783273</v>
+        <v>87211506</v>
       </c>
       <c r="AB63" s="11">
-        <v>87211506</v>
+        <v>114994138</v>
       </c>
       <c r="AC63" s="11">
-        <v>114994138</v>
+        <v>131109756</v>
       </c>
       <c r="AD63" s="11">
-        <v>131109756</v>
+        <v>143177966</v>
       </c>
       <c r="AE63" s="11">
-        <v>143177966</v>
+        <v>183202399</v>
       </c>
       <c r="AF63" s="11">
-        <v>183202399</v>
+        <v>184674300</v>
       </c>
       <c r="AG63" s="11">
-        <v>184674300</v>
+        <v>201927014</v>
       </c>
       <c r="AH63" s="11">
-        <v>201927014</v>
+        <v>220911486</v>
       </c>
       <c r="AI63" s="11">
-        <v>220911486</v>
+        <v>222241855</v>
       </c>
       <c r="AJ63" s="11">
-        <v>222241855</v>
+        <v>212290566</v>
       </c>
       <c r="AK63" s="11">
-        <v>212290566</v>
+        <v>224233996</v>
       </c>
       <c r="AL63" s="11">
-        <v>224233996</v>
+        <v>228850117</v>
       </c>
       <c r="AM63" s="11">
-        <v>228850117</v>
+        <v>228904000</v>
       </c>
       <c r="AN63" s="11">
-        <v>228904000</v>
+        <v>224127049</v>
       </c>
       <c r="AO63" s="11">
-        <v>224127049</v>
+        <v>218629501</v>
       </c>
       <c r="AP63" s="11">
-        <v>218629501</v>
+        <v>225700765</v>
       </c>
       <c r="AQ63" s="11">
-        <v>225700765</v>
+        <v>234829493</v>
       </c>
       <c r="AR63" s="11">
-        <v>234829493</v>
+        <v>230064953</v>
       </c>
       <c r="AS63" s="11">
-        <v>230064953</v>
+        <v>228141888</v>
       </c>
       <c r="AT63" s="11">
-        <v>228141888</v>
+        <v>276760047</v>
       </c>
       <c r="AU63" s="11">
-        <v>276760047</v>
+        <v>322909292</v>
       </c>
       <c r="AV63" s="11">
-        <v>322909292</v>
+        <v>354819008</v>
       </c>
       <c r="AW63" s="11">
-        <v>354819008</v>
+        <v>329731377</v>
       </c>
       <c r="AX63" s="11">
-        <v>329731377</v>
+        <v>341905983</v>
       </c>
       <c r="AY63" s="11">
-        <v>341905983</v>
+        <v>318494253</v>
       </c>
       <c r="AZ63" s="11">
-        <v>318494253</v>
+        <v>301995830</v>
       </c>
       <c r="BA63" s="11">
-        <v>301995830</v>
+        <v>291842105</v>
       </c>
       <c r="BB63" s="11">
-        <v>291842105</v>
+        <v>273210300</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/dode/shekarbon/product/monthly_seprated.xlsx
+++ b/database/industries/dode/shekarbon/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4BBBA3-F262-4FA0-AC18-DD5627039F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925A8597-559F-498C-A1A7-642DB6CDD343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -748,12 +748,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -808,7 +808,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -865,7 +865,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -977,7 +977,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1146,7 +1146,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1358,7 +1358,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1477,104 +1477,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>3400</v>
+      </c>
+      <c r="X11" s="11">
+        <v>3530</v>
       </c>
       <c r="Y11" s="11">
-        <v>3400</v>
+        <v>2951</v>
       </c>
       <c r="Z11" s="11">
-        <v>3530</v>
+        <v>4040</v>
       </c>
       <c r="AA11" s="11">
-        <v>2951</v>
+        <v>3225</v>
       </c>
       <c r="AB11" s="11">
-        <v>4040</v>
+        <v>3438</v>
       </c>
       <c r="AC11" s="11">
-        <v>3225</v>
+        <v>4670</v>
       </c>
       <c r="AD11" s="11">
-        <v>3438</v>
+        <v>4320</v>
       </c>
       <c r="AE11" s="11">
-        <v>4670</v>
+        <v>4193</v>
       </c>
       <c r="AF11" s="11">
-        <v>4320</v>
+        <v>3610</v>
       </c>
       <c r="AG11" s="11">
-        <v>4193</v>
+        <v>3760</v>
       </c>
       <c r="AH11" s="11">
-        <v>3610</v>
+        <v>4125</v>
       </c>
       <c r="AI11" s="11">
-        <v>3760</v>
+        <v>3924</v>
       </c>
       <c r="AJ11" s="11">
-        <v>4125</v>
+        <v>4015</v>
       </c>
       <c r="AK11" s="11">
-        <v>3924</v>
+        <v>3683</v>
       </c>
       <c r="AL11" s="11">
-        <v>4015</v>
+        <v>4100</v>
       </c>
       <c r="AM11" s="11">
-        <v>3683</v>
+        <v>2715</v>
       </c>
       <c r="AN11" s="11">
-        <v>4100</v>
+        <v>3855</v>
       </c>
       <c r="AO11" s="11">
-        <v>2715</v>
+        <v>3827</v>
       </c>
       <c r="AP11" s="11">
-        <v>3855</v>
+        <v>2999</v>
       </c>
       <c r="AQ11" s="11">
-        <v>3827</v>
+        <v>3403</v>
       </c>
       <c r="AR11" s="11">
-        <v>2999</v>
+        <v>3890</v>
       </c>
       <c r="AS11" s="11">
-        <v>3403</v>
+        <v>3877</v>
       </c>
       <c r="AT11" s="11">
-        <v>3890</v>
+        <v>3354</v>
       </c>
       <c r="AU11" s="11">
-        <v>3877</v>
+        <v>3897</v>
       </c>
       <c r="AV11" s="11">
-        <v>3354</v>
+        <v>2874</v>
       </c>
       <c r="AW11" s="11">
-        <v>3897</v>
+        <v>4121</v>
       </c>
       <c r="AX11" s="11">
-        <v>2874</v>
+        <v>3934</v>
       </c>
       <c r="AY11" s="11">
-        <v>4121</v>
+        <v>3832</v>
       </c>
       <c r="AZ11" s="11">
-        <v>3934</v>
+        <v>3285</v>
       </c>
       <c r="BA11" s="11">
-        <v>3832</v>
+        <v>3331</v>
       </c>
       <c r="BB11" s="11">
-        <v>3285</v>
+        <v>3391</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1635,103 +1635,103 @@
         <v>0</v>
       </c>
       <c r="W12" s="13">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="X12" s="13">
-        <v>0</v>
+        <v>3530</v>
       </c>
       <c r="Y12" s="13">
-        <v>3400</v>
+        <v>2951</v>
       </c>
       <c r="Z12" s="13">
-        <v>3530</v>
+        <v>4040</v>
       </c>
       <c r="AA12" s="13">
-        <v>2951</v>
+        <v>3225</v>
       </c>
       <c r="AB12" s="13">
-        <v>4040</v>
+        <v>3438</v>
       </c>
       <c r="AC12" s="13">
-        <v>3225</v>
+        <v>4670</v>
       </c>
       <c r="AD12" s="13">
-        <v>3438</v>
+        <v>4320</v>
       </c>
       <c r="AE12" s="13">
-        <v>4670</v>
+        <v>4193</v>
       </c>
       <c r="AF12" s="13">
-        <v>4320</v>
+        <v>3610</v>
       </c>
       <c r="AG12" s="13">
-        <v>4193</v>
+        <v>3760</v>
       </c>
       <c r="AH12" s="13">
-        <v>3610</v>
+        <v>4125</v>
       </c>
       <c r="AI12" s="13">
-        <v>3760</v>
+        <v>3924</v>
       </c>
       <c r="AJ12" s="13">
-        <v>4125</v>
+        <v>4015</v>
       </c>
       <c r="AK12" s="13">
-        <v>3924</v>
+        <v>3683</v>
       </c>
       <c r="AL12" s="13">
-        <v>4015</v>
+        <v>4100</v>
       </c>
       <c r="AM12" s="13">
-        <v>3683</v>
+        <v>2715</v>
       </c>
       <c r="AN12" s="13">
-        <v>4100</v>
+        <v>3855</v>
       </c>
       <c r="AO12" s="13">
-        <v>2715</v>
+        <v>3827</v>
       </c>
       <c r="AP12" s="13">
-        <v>3855</v>
+        <v>2999</v>
       </c>
       <c r="AQ12" s="13">
-        <v>3827</v>
+        <v>3403</v>
       </c>
       <c r="AR12" s="13">
-        <v>2999</v>
+        <v>3890</v>
       </c>
       <c r="AS12" s="13">
-        <v>3403</v>
+        <v>3877</v>
       </c>
       <c r="AT12" s="13">
-        <v>3890</v>
+        <v>3354</v>
       </c>
       <c r="AU12" s="13">
-        <v>3877</v>
+        <v>3897</v>
       </c>
       <c r="AV12" s="13">
-        <v>3354</v>
+        <v>2874</v>
       </c>
       <c r="AW12" s="13">
-        <v>3897</v>
+        <v>4121</v>
       </c>
       <c r="AX12" s="13">
-        <v>2874</v>
+        <v>3934</v>
       </c>
       <c r="AY12" s="13">
-        <v>4121</v>
+        <v>3832</v>
       </c>
       <c r="AZ12" s="13">
-        <v>3934</v>
+        <v>3285</v>
       </c>
       <c r="BA12" s="13">
-        <v>3832</v>
+        <v>3331</v>
       </c>
       <c r="BB12" s="13">
-        <v>3285</v>
+        <v>3391</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="BA13" s="9"/>
       <c r="BB13" s="9"/>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>56</v>
       </c>
@@ -1850,11 +1850,11 @@
       <c r="V14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>58</v>
+      <c r="W14" s="11">
+        <v>0</v>
+      </c>
+      <c r="X14" s="11">
+        <v>0</v>
       </c>
       <c r="Y14" s="11">
         <v>0</v>
@@ -1880,11 +1880,11 @@
       <c r="AF14" s="11">
         <v>0</v>
       </c>
-      <c r="AG14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="11">
-        <v>0</v>
+      <c r="AG14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH14" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI14" s="11" t="s">
         <v>58</v>
@@ -1910,11 +1910,11 @@
       <c r="AP14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR14" s="11" t="s">
-        <v>58</v>
+      <c r="AQ14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="11">
+        <v>0</v>
       </c>
       <c r="AS14" s="11">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>61</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>62</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="BA16" s="15"/>
       <c r="BB16" s="15"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>63</v>
       </c>
@@ -2221,11 +2221,11 @@
       <c r="V17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="17" t="s">
-        <v>58</v>
+      <c r="W17" s="17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="17">
+        <v>0</v>
       </c>
       <c r="Y17" s="17">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2379,103 +2379,103 @@
         <v>0</v>
       </c>
       <c r="W18" s="13">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="X18" s="13">
-        <v>0</v>
+        <v>3530</v>
       </c>
       <c r="Y18" s="13">
-        <v>3400</v>
+        <v>2951</v>
       </c>
       <c r="Z18" s="13">
-        <v>3530</v>
+        <v>4040</v>
       </c>
       <c r="AA18" s="13">
-        <v>2951</v>
+        <v>3225</v>
       </c>
       <c r="AB18" s="13">
-        <v>4040</v>
+        <v>3438</v>
       </c>
       <c r="AC18" s="13">
-        <v>3225</v>
+        <v>4670</v>
       </c>
       <c r="AD18" s="13">
-        <v>3438</v>
+        <v>4320</v>
       </c>
       <c r="AE18" s="13">
-        <v>4670</v>
+        <v>4193</v>
       </c>
       <c r="AF18" s="13">
-        <v>4320</v>
+        <v>3610</v>
       </c>
       <c r="AG18" s="13">
-        <v>4193</v>
+        <v>3760</v>
       </c>
       <c r="AH18" s="13">
-        <v>3610</v>
+        <v>4125</v>
       </c>
       <c r="AI18" s="13">
-        <v>3760</v>
+        <v>3924</v>
       </c>
       <c r="AJ18" s="13">
-        <v>4125</v>
+        <v>4015</v>
       </c>
       <c r="AK18" s="13">
-        <v>3924</v>
+        <v>3683</v>
       </c>
       <c r="AL18" s="13">
-        <v>4015</v>
+        <v>4100</v>
       </c>
       <c r="AM18" s="13">
-        <v>3683</v>
+        <v>2715</v>
       </c>
       <c r="AN18" s="13">
-        <v>4100</v>
+        <v>3855</v>
       </c>
       <c r="AO18" s="13">
-        <v>2715</v>
+        <v>3827</v>
       </c>
       <c r="AP18" s="13">
-        <v>3855</v>
+        <v>2999</v>
       </c>
       <c r="AQ18" s="13">
-        <v>3827</v>
+        <v>3403</v>
       </c>
       <c r="AR18" s="13">
-        <v>2999</v>
+        <v>3890</v>
       </c>
       <c r="AS18" s="13">
-        <v>3403</v>
+        <v>3877</v>
       </c>
       <c r="AT18" s="13">
-        <v>3890</v>
+        <v>3354</v>
       </c>
       <c r="AU18" s="13">
-        <v>3877</v>
+        <v>3897</v>
       </c>
       <c r="AV18" s="13">
-        <v>3354</v>
+        <v>2874</v>
       </c>
       <c r="AW18" s="13">
-        <v>3897</v>
+        <v>4121</v>
       </c>
       <c r="AX18" s="13">
-        <v>2874</v>
+        <v>3934</v>
       </c>
       <c r="AY18" s="13">
-        <v>4121</v>
+        <v>3832</v>
       </c>
       <c r="AZ18" s="13">
-        <v>3934</v>
+        <v>3285</v>
       </c>
       <c r="BA18" s="13">
-        <v>3832</v>
+        <v>3331</v>
       </c>
       <c r="BB18" s="13">
-        <v>3285</v>
+        <v>3391</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2530,7 +2530,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2585,7 +2585,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2640,7 +2640,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>65</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2852,7 +2852,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>66</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>56</v>
       </c>
@@ -2971,104 +2971,104 @@
       <c r="V25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>58</v>
+      <c r="W25" s="11">
+        <v>2595</v>
+      </c>
+      <c r="X25" s="11">
+        <v>2615</v>
       </c>
       <c r="Y25" s="11">
-        <v>2595</v>
+        <v>2739</v>
       </c>
       <c r="Z25" s="11">
-        <v>2615</v>
+        <v>3374</v>
       </c>
       <c r="AA25" s="11">
-        <v>2739</v>
+        <v>2940</v>
       </c>
       <c r="AB25" s="11">
-        <v>3374</v>
+        <v>2874</v>
       </c>
       <c r="AC25" s="11">
-        <v>2940</v>
+        <v>3102</v>
       </c>
       <c r="AD25" s="11">
+        <v>3396</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>3790</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>1917</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>3437</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>3260</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>2953</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>2308</v>
+      </c>
+      <c r="AK25" s="11">
         <v>2874</v>
       </c>
-      <c r="AE25" s="11">
-        <v>3102</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>3396</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>3790</v>
-      </c>
-      <c r="AH25" s="11">
-        <v>1917</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>3437</v>
-      </c>
-      <c r="AJ25" s="11">
-        <v>3260</v>
-      </c>
-      <c r="AK25" s="11">
-        <v>2953</v>
-      </c>
       <c r="AL25" s="11">
-        <v>2308</v>
+        <v>2370</v>
       </c>
       <c r="AM25" s="11">
-        <v>2874</v>
+        <v>2519</v>
       </c>
       <c r="AN25" s="11">
-        <v>2370</v>
+        <v>2083</v>
       </c>
       <c r="AO25" s="11">
-        <v>2519</v>
+        <v>2407</v>
       </c>
       <c r="AP25" s="11">
-        <v>2083</v>
+        <v>1877</v>
       </c>
       <c r="AQ25" s="11">
-        <v>2407</v>
+        <v>2743</v>
       </c>
       <c r="AR25" s="11">
-        <v>1877</v>
+        <v>2593</v>
       </c>
       <c r="AS25" s="11">
-        <v>2743</v>
+        <v>2669</v>
       </c>
       <c r="AT25" s="11">
-        <v>2593</v>
+        <v>2767</v>
       </c>
       <c r="AU25" s="11">
-        <v>2669</v>
+        <v>3203</v>
       </c>
       <c r="AV25" s="11">
-        <v>2767</v>
+        <v>3075</v>
       </c>
       <c r="AW25" s="11">
-        <v>3203</v>
+        <v>2016</v>
       </c>
       <c r="AX25" s="11">
-        <v>3075</v>
+        <v>2671</v>
       </c>
       <c r="AY25" s="11">
-        <v>2016</v>
+        <v>2586</v>
       </c>
       <c r="AZ25" s="11">
-        <v>2671</v>
+        <v>3173</v>
       </c>
       <c r="BA25" s="11">
-        <v>2586</v>
+        <v>2267</v>
       </c>
       <c r="BB25" s="11">
-        <v>3173</v>
+        <v>3319</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>67</v>
       </c>
@@ -3129,103 +3129,103 @@
         <v>0</v>
       </c>
       <c r="W26" s="13">
-        <v>0</v>
+        <v>2595</v>
       </c>
       <c r="X26" s="13">
-        <v>0</v>
+        <v>2615</v>
       </c>
       <c r="Y26" s="13">
-        <v>2595</v>
+        <v>2739</v>
       </c>
       <c r="Z26" s="13">
-        <v>2615</v>
+        <v>3374</v>
       </c>
       <c r="AA26" s="13">
-        <v>2739</v>
+        <v>2940</v>
       </c>
       <c r="AB26" s="13">
-        <v>3374</v>
+        <v>2874</v>
       </c>
       <c r="AC26" s="13">
-        <v>2940</v>
+        <v>3102</v>
       </c>
       <c r="AD26" s="13">
+        <v>3396</v>
+      </c>
+      <c r="AE26" s="13">
+        <v>3790</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>1917</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>3437</v>
+      </c>
+      <c r="AH26" s="13">
+        <v>3260</v>
+      </c>
+      <c r="AI26" s="13">
+        <v>2953</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>2308</v>
+      </c>
+      <c r="AK26" s="13">
         <v>2874</v>
       </c>
-      <c r="AE26" s="13">
-        <v>3102</v>
-      </c>
-      <c r="AF26" s="13">
-        <v>3396</v>
-      </c>
-      <c r="AG26" s="13">
-        <v>3790</v>
-      </c>
-      <c r="AH26" s="13">
-        <v>1917</v>
-      </c>
-      <c r="AI26" s="13">
-        <v>3437</v>
-      </c>
-      <c r="AJ26" s="13">
-        <v>3260</v>
-      </c>
-      <c r="AK26" s="13">
-        <v>2953</v>
-      </c>
       <c r="AL26" s="13">
-        <v>2308</v>
+        <v>2370</v>
       </c>
       <c r="AM26" s="13">
-        <v>2874</v>
+        <v>2519</v>
       </c>
       <c r="AN26" s="13">
-        <v>2370</v>
+        <v>2083</v>
       </c>
       <c r="AO26" s="13">
-        <v>2519</v>
+        <v>2407</v>
       </c>
       <c r="AP26" s="13">
-        <v>2083</v>
+        <v>1877</v>
       </c>
       <c r="AQ26" s="13">
-        <v>2407</v>
+        <v>2743</v>
       </c>
       <c r="AR26" s="13">
-        <v>1877</v>
+        <v>2593</v>
       </c>
       <c r="AS26" s="13">
-        <v>2743</v>
+        <v>2669</v>
       </c>
       <c r="AT26" s="13">
-        <v>2593</v>
+        <v>2767</v>
       </c>
       <c r="AU26" s="13">
-        <v>2669</v>
+        <v>3203</v>
       </c>
       <c r="AV26" s="13">
-        <v>2767</v>
+        <v>3075</v>
       </c>
       <c r="AW26" s="13">
-        <v>3203</v>
+        <v>2016</v>
       </c>
       <c r="AX26" s="13">
-        <v>3075</v>
+        <v>2671</v>
       </c>
       <c r="AY26" s="13">
-        <v>2016</v>
+        <v>2586</v>
       </c>
       <c r="AZ26" s="13">
-        <v>2671</v>
+        <v>3173</v>
       </c>
       <c r="BA26" s="13">
-        <v>2586</v>
+        <v>2267</v>
       </c>
       <c r="BB26" s="13">
-        <v>3173</v>
+        <v>3319</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>68</v>
       </c>
@@ -3282,7 +3282,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>56</v>
       </c>
@@ -3344,104 +3344,104 @@
       <c r="V28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>58</v>
+      <c r="W28" s="11">
+        <v>1466</v>
+      </c>
+      <c r="X28" s="11">
+        <v>1375</v>
       </c>
       <c r="Y28" s="11">
-        <v>1466</v>
+        <v>591</v>
       </c>
       <c r="Z28" s="11">
-        <v>1375</v>
+        <v>853</v>
       </c>
       <c r="AA28" s="11">
-        <v>591</v>
+        <v>738</v>
       </c>
       <c r="AB28" s="11">
-        <v>853</v>
+        <v>944</v>
       </c>
       <c r="AC28" s="11">
-        <v>738</v>
+        <v>1334</v>
       </c>
       <c r="AD28" s="11">
-        <v>944</v>
+        <v>393</v>
       </c>
       <c r="AE28" s="11">
-        <v>1334</v>
+        <v>1055</v>
       </c>
       <c r="AF28" s="11">
-        <v>393</v>
+        <v>949</v>
       </c>
       <c r="AG28" s="11">
-        <v>1055</v>
+        <v>798</v>
       </c>
       <c r="AH28" s="11">
-        <v>949</v>
+        <v>530</v>
       </c>
       <c r="AI28" s="11">
-        <v>798</v>
+        <v>453</v>
       </c>
       <c r="AJ28" s="11">
-        <v>530</v>
+        <v>427</v>
       </c>
       <c r="AK28" s="11">
-        <v>453</v>
+        <v>500</v>
       </c>
       <c r="AL28" s="11">
-        <v>427</v>
+        <v>732</v>
       </c>
       <c r="AM28" s="11">
-        <v>500</v>
+        <v>861</v>
       </c>
       <c r="AN28" s="11">
-        <v>732</v>
+        <v>1046</v>
       </c>
       <c r="AO28" s="11">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="AP28" s="11">
-        <v>1046</v>
+        <v>1478</v>
       </c>
       <c r="AQ28" s="11">
-        <v>868</v>
+        <v>1769</v>
       </c>
       <c r="AR28" s="11">
-        <v>1478</v>
+        <v>846</v>
       </c>
       <c r="AS28" s="11">
-        <v>1769</v>
+        <v>904</v>
       </c>
       <c r="AT28" s="11">
-        <v>846</v>
+        <v>1210</v>
       </c>
       <c r="AU28" s="11">
-        <v>904</v>
+        <v>443</v>
       </c>
       <c r="AV28" s="11">
-        <v>1210</v>
+        <v>468</v>
       </c>
       <c r="AW28" s="11">
-        <v>443</v>
+        <v>957</v>
       </c>
       <c r="AX28" s="11">
-        <v>468</v>
+        <v>1439</v>
       </c>
       <c r="AY28" s="11">
-        <v>957</v>
+        <v>912</v>
       </c>
       <c r="AZ28" s="11">
-        <v>1439</v>
+        <v>699</v>
       </c>
       <c r="BA28" s="11">
-        <v>912</v>
+        <v>828</v>
       </c>
       <c r="BB28" s="11">
-        <v>699</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>69</v>
       </c>
@@ -3502,103 +3502,103 @@
         <v>0</v>
       </c>
       <c r="W29" s="13">
-        <v>0</v>
+        <v>1466</v>
       </c>
       <c r="X29" s="13">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="Y29" s="13">
-        <v>1466</v>
+        <v>591</v>
       </c>
       <c r="Z29" s="13">
-        <v>1375</v>
+        <v>853</v>
       </c>
       <c r="AA29" s="13">
-        <v>591</v>
+        <v>738</v>
       </c>
       <c r="AB29" s="13">
-        <v>853</v>
+        <v>944</v>
       </c>
       <c r="AC29" s="13">
-        <v>738</v>
+        <v>1334</v>
       </c>
       <c r="AD29" s="13">
-        <v>944</v>
+        <v>393</v>
       </c>
       <c r="AE29" s="13">
-        <v>1334</v>
+        <v>1055</v>
       </c>
       <c r="AF29" s="13">
-        <v>393</v>
+        <v>949</v>
       </c>
       <c r="AG29" s="13">
-        <v>1055</v>
+        <v>798</v>
       </c>
       <c r="AH29" s="13">
-        <v>949</v>
+        <v>530</v>
       </c>
       <c r="AI29" s="13">
-        <v>798</v>
+        <v>453</v>
       </c>
       <c r="AJ29" s="13">
-        <v>530</v>
+        <v>427</v>
       </c>
       <c r="AK29" s="13">
-        <v>453</v>
+        <v>500</v>
       </c>
       <c r="AL29" s="13">
-        <v>427</v>
+        <v>732</v>
       </c>
       <c r="AM29" s="13">
-        <v>500</v>
+        <v>861</v>
       </c>
       <c r="AN29" s="13">
-        <v>732</v>
+        <v>1046</v>
       </c>
       <c r="AO29" s="13">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="AP29" s="13">
-        <v>1046</v>
+        <v>1478</v>
       </c>
       <c r="AQ29" s="13">
-        <v>868</v>
+        <v>1769</v>
       </c>
       <c r="AR29" s="13">
-        <v>1478</v>
+        <v>846</v>
       </c>
       <c r="AS29" s="13">
-        <v>1769</v>
+        <v>904</v>
       </c>
       <c r="AT29" s="13">
-        <v>846</v>
+        <v>1210</v>
       </c>
       <c r="AU29" s="13">
-        <v>904</v>
+        <v>443</v>
       </c>
       <c r="AV29" s="13">
-        <v>1210</v>
+        <v>468</v>
       </c>
       <c r="AW29" s="13">
-        <v>443</v>
+        <v>957</v>
       </c>
       <c r="AX29" s="13">
-        <v>468</v>
+        <v>1439</v>
       </c>
       <c r="AY29" s="13">
-        <v>957</v>
+        <v>912</v>
       </c>
       <c r="AZ29" s="13">
-        <v>1439</v>
+        <v>699</v>
       </c>
       <c r="BA29" s="13">
-        <v>912</v>
+        <v>828</v>
       </c>
       <c r="BB29" s="13">
-        <v>699</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>62</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="15"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>63</v>
       </c>
@@ -3715,11 +3715,11 @@
       <c r="V31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="17" t="s">
-        <v>58</v>
+      <c r="W31" s="17">
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
+        <v>0</v>
       </c>
       <c r="Y31" s="17">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>70</v>
       </c>
@@ -3869,7 +3869,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
@@ -3931,11 +3931,11 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>0</v>
+      </c>
+      <c r="X33" s="11">
+        <v>0</v>
       </c>
       <c r="Y33" s="11">
         <v>0</v>
@@ -3958,11 +3958,11 @@
       <c r="AE33" s="11">
         <v>0</v>
       </c>
-      <c r="AF33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="11">
-        <v>0</v>
+      <c r="AF33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH33" s="11" t="s">
         <v>58</v>
@@ -3994,14 +3994,14 @@
       <c r="AQ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR33" s="11" t="s">
-        <v>58</v>
+      <c r="AR33" s="11">
+        <v>-9</v>
       </c>
       <c r="AS33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT33" s="11">
-        <v>-9</v>
+      <c r="AT33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU33" s="11" t="s">
         <v>58</v>
@@ -4015,20 +4015,20 @@
       <c r="AX33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY33" s="11" t="s">
-        <v>58</v>
+      <c r="AY33" s="11">
+        <v>-10</v>
       </c>
       <c r="AZ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA33" s="11">
-        <v>-10</v>
-      </c>
-      <c r="BB33" s="11" t="s">
-        <v>58</v>
+      <c r="BA33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB33" s="11">
+        <v>-21</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>71</v>
       </c>
@@ -4088,11 +4088,11 @@
       <c r="V34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>58</v>
+      <c r="W34" s="13">
+        <v>0</v>
+      </c>
+      <c r="X34" s="13">
+        <v>0</v>
       </c>
       <c r="Y34" s="13">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="AR34" s="13">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AS34" s="13">
         <v>0</v>
       </c>
       <c r="AT34" s="13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="13">
         <v>0</v>
@@ -4173,19 +4173,19 @@
         <v>0</v>
       </c>
       <c r="AY34" s="13">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AZ34" s="13">
         <v>0</v>
       </c>
       <c r="BA34" s="13">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="13">
-        <v>0</v>
+        <v>-21</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>64</v>
       </c>
@@ -4246,103 +4246,103 @@
         <v>0</v>
       </c>
       <c r="W35" s="17">
-        <v>0</v>
+        <v>4061</v>
       </c>
       <c r="X35" s="17">
-        <v>0</v>
+        <v>3990</v>
       </c>
       <c r="Y35" s="17">
-        <v>4061</v>
+        <v>3330</v>
       </c>
       <c r="Z35" s="17">
-        <v>3990</v>
+        <v>4227</v>
       </c>
       <c r="AA35" s="17">
-        <v>3330</v>
+        <v>3678</v>
       </c>
       <c r="AB35" s="17">
-        <v>4227</v>
+        <v>3818</v>
       </c>
       <c r="AC35" s="17">
-        <v>3678</v>
+        <v>4436</v>
       </c>
       <c r="AD35" s="17">
-        <v>3818</v>
+        <v>3789</v>
       </c>
       <c r="AE35" s="17">
-        <v>4436</v>
+        <v>4845</v>
       </c>
       <c r="AF35" s="17">
-        <v>3789</v>
+        <v>2866</v>
       </c>
       <c r="AG35" s="17">
-        <v>4845</v>
+        <v>4235</v>
       </c>
       <c r="AH35" s="17">
-        <v>2866</v>
+        <v>3790</v>
       </c>
       <c r="AI35" s="17">
-        <v>4235</v>
+        <v>3406</v>
       </c>
       <c r="AJ35" s="17">
-        <v>3790</v>
+        <v>2735</v>
       </c>
       <c r="AK35" s="17">
-        <v>3406</v>
+        <v>3374</v>
       </c>
       <c r="AL35" s="17">
-        <v>2735</v>
+        <v>3102</v>
       </c>
       <c r="AM35" s="17">
-        <v>3374</v>
+        <v>3380</v>
       </c>
       <c r="AN35" s="17">
-        <v>3102</v>
+        <v>3129</v>
       </c>
       <c r="AO35" s="17">
-        <v>3380</v>
+        <v>3275</v>
       </c>
       <c r="AP35" s="17">
-        <v>3129</v>
+        <v>3355</v>
       </c>
       <c r="AQ35" s="17">
-        <v>3275</v>
+        <v>4512</v>
       </c>
       <c r="AR35" s="17">
-        <v>3355</v>
+        <v>3430</v>
       </c>
       <c r="AS35" s="17">
-        <v>4512</v>
+        <v>3573</v>
       </c>
       <c r="AT35" s="17">
-        <v>3430</v>
+        <v>3977</v>
       </c>
       <c r="AU35" s="17">
-        <v>3573</v>
+        <v>3646</v>
       </c>
       <c r="AV35" s="17">
-        <v>3977</v>
+        <v>3543</v>
       </c>
       <c r="AW35" s="17">
-        <v>3646</v>
+        <v>2973</v>
       </c>
       <c r="AX35" s="17">
-        <v>3543</v>
+        <v>4110</v>
       </c>
       <c r="AY35" s="17">
-        <v>2973</v>
+        <v>3488</v>
       </c>
       <c r="AZ35" s="17">
-        <v>4110</v>
+        <v>3872</v>
       </c>
       <c r="BA35" s="17">
-        <v>3488</v>
+        <v>3095</v>
       </c>
       <c r="BB35" s="17">
-        <v>3872</v>
+        <v>4011</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4397,7 +4397,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4452,7 +4452,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4507,7 +4507,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>72</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4719,7 +4719,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>73</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>56</v>
       </c>
@@ -4838,104 +4838,104 @@
       <c r="V42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X42" s="11" t="s">
-        <v>58</v>
+      <c r="W42" s="11">
+        <v>224973</v>
+      </c>
+      <c r="X42" s="11">
+        <v>276924</v>
       </c>
       <c r="Y42" s="11">
-        <v>224973</v>
+        <v>324272</v>
       </c>
       <c r="Z42" s="11">
-        <v>276924</v>
+        <v>430026</v>
       </c>
       <c r="AA42" s="11">
-        <v>324272</v>
+        <v>414711</v>
       </c>
       <c r="AB42" s="11">
-        <v>430026</v>
+        <v>460685</v>
       </c>
       <c r="AC42" s="11">
-        <v>414711</v>
+        <v>559680</v>
       </c>
       <c r="AD42" s="11">
-        <v>460685</v>
+        <v>654444</v>
       </c>
       <c r="AE42" s="11">
-        <v>559680</v>
+        <v>781104</v>
       </c>
       <c r="AF42" s="11">
-        <v>654444</v>
+        <v>413878</v>
       </c>
       <c r="AG42" s="11">
-        <v>781104</v>
+        <v>796529</v>
       </c>
       <c r="AH42" s="11">
-        <v>413878</v>
+        <v>752983</v>
       </c>
       <c r="AI42" s="11">
-        <v>796529</v>
+        <v>692149</v>
       </c>
       <c r="AJ42" s="11">
-        <v>752983</v>
+        <v>558330</v>
       </c>
       <c r="AK42" s="11">
-        <v>692149</v>
+        <v>715917</v>
       </c>
       <c r="AL42" s="11">
-        <v>558330</v>
+        <v>608406</v>
       </c>
       <c r="AM42" s="11">
-        <v>715917</v>
+        <v>668905</v>
       </c>
       <c r="AN42" s="11">
-        <v>608406</v>
+        <v>553700</v>
       </c>
       <c r="AO42" s="11">
-        <v>668905</v>
+        <v>642062</v>
       </c>
       <c r="AP42" s="11">
-        <v>553700</v>
+        <v>522801</v>
       </c>
       <c r="AQ42" s="11">
-        <v>642062</v>
+        <v>829210</v>
       </c>
       <c r="AR42" s="11">
-        <v>522801</v>
+        <v>914535</v>
       </c>
       <c r="AS42" s="11">
-        <v>829210</v>
+        <v>992568</v>
       </c>
       <c r="AT42" s="11">
-        <v>914535</v>
+        <v>1166594</v>
       </c>
       <c r="AU42" s="11">
-        <v>992568</v>
+        <v>1413550</v>
       </c>
       <c r="AV42" s="11">
-        <v>1166594</v>
+        <v>1369807</v>
       </c>
       <c r="AW42" s="11">
-        <v>1413550</v>
+        <v>858016</v>
       </c>
       <c r="AX42" s="11">
-        <v>1369807</v>
+        <v>1023713</v>
       </c>
       <c r="AY42" s="11">
-        <v>858016</v>
+        <v>963817</v>
       </c>
       <c r="AZ42" s="11">
-        <v>1023713</v>
+        <v>1127483</v>
       </c>
       <c r="BA42" s="11">
-        <v>963817</v>
+        <v>803303</v>
       </c>
       <c r="BB42" s="11">
-        <v>1127483</v>
+        <v>1195684</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>67</v>
       </c>
@@ -4996,103 +4996,103 @@
         <v>0</v>
       </c>
       <c r="W43" s="13">
-        <v>0</v>
+        <v>224973</v>
       </c>
       <c r="X43" s="13">
-        <v>0</v>
+        <v>276924</v>
       </c>
       <c r="Y43" s="13">
-        <v>224973</v>
+        <v>324272</v>
       </c>
       <c r="Z43" s="13">
-        <v>276924</v>
+        <v>430026</v>
       </c>
       <c r="AA43" s="13">
-        <v>324272</v>
+        <v>414711</v>
       </c>
       <c r="AB43" s="13">
-        <v>430026</v>
+        <v>460685</v>
       </c>
       <c r="AC43" s="13">
-        <v>414711</v>
+        <v>559680</v>
       </c>
       <c r="AD43" s="13">
-        <v>460685</v>
+        <v>654444</v>
       </c>
       <c r="AE43" s="13">
-        <v>559680</v>
+        <v>781104</v>
       </c>
       <c r="AF43" s="13">
-        <v>654444</v>
+        <v>413878</v>
       </c>
       <c r="AG43" s="13">
-        <v>781104</v>
+        <v>796529</v>
       </c>
       <c r="AH43" s="13">
-        <v>413878</v>
+        <v>752983</v>
       </c>
       <c r="AI43" s="13">
-        <v>796529</v>
+        <v>692149</v>
       </c>
       <c r="AJ43" s="13">
-        <v>752983</v>
+        <v>558330</v>
       </c>
       <c r="AK43" s="13">
-        <v>692149</v>
+        <v>715917</v>
       </c>
       <c r="AL43" s="13">
-        <v>558330</v>
+        <v>608406</v>
       </c>
       <c r="AM43" s="13">
-        <v>715917</v>
+        <v>668905</v>
       </c>
       <c r="AN43" s="13">
-        <v>608406</v>
+        <v>553700</v>
       </c>
       <c r="AO43" s="13">
-        <v>668905</v>
+        <v>642062</v>
       </c>
       <c r="AP43" s="13">
-        <v>553700</v>
+        <v>522801</v>
       </c>
       <c r="AQ43" s="13">
-        <v>642062</v>
+        <v>829210</v>
       </c>
       <c r="AR43" s="13">
-        <v>522801</v>
+        <v>914535</v>
       </c>
       <c r="AS43" s="13">
-        <v>829210</v>
+        <v>992568</v>
       </c>
       <c r="AT43" s="13">
-        <v>914535</v>
+        <v>1166594</v>
       </c>
       <c r="AU43" s="13">
-        <v>992568</v>
+        <v>1413550</v>
       </c>
       <c r="AV43" s="13">
-        <v>1166594</v>
+        <v>1369807</v>
       </c>
       <c r="AW43" s="13">
-        <v>1413550</v>
+        <v>858016</v>
       </c>
       <c r="AX43" s="13">
-        <v>1369807</v>
+        <v>1023713</v>
       </c>
       <c r="AY43" s="13">
-        <v>858016</v>
+        <v>963817</v>
       </c>
       <c r="AZ43" s="13">
-        <v>1023713</v>
+        <v>1127483</v>
       </c>
       <c r="BA43" s="13">
-        <v>963817</v>
+        <v>803303</v>
       </c>
       <c r="BB43" s="13">
-        <v>1127483</v>
+        <v>1195684</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>75</v>
       </c>
@@ -5149,7 +5149,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>56</v>
       </c>
@@ -5211,104 +5211,104 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>91339</v>
+      </c>
+      <c r="X45" s="11">
+        <v>102827</v>
       </c>
       <c r="Y45" s="11">
-        <v>91339</v>
+        <v>51542</v>
       </c>
       <c r="Z45" s="11">
-        <v>102827</v>
+        <v>98090</v>
       </c>
       <c r="AA45" s="11">
-        <v>51542</v>
+        <v>96759</v>
       </c>
       <c r="AB45" s="11">
-        <v>98090</v>
+        <v>135160</v>
       </c>
       <c r="AC45" s="11">
-        <v>96759</v>
+        <v>244392</v>
       </c>
       <c r="AD45" s="11">
-        <v>135160</v>
+        <v>72577</v>
       </c>
       <c r="AE45" s="11">
-        <v>244392</v>
+        <v>213033</v>
       </c>
       <c r="AF45" s="11">
-        <v>72577</v>
+        <v>209645</v>
       </c>
       <c r="AG45" s="11">
-        <v>213033</v>
+        <v>177349</v>
       </c>
       <c r="AH45" s="11">
-        <v>209645</v>
+        <v>112514</v>
       </c>
       <c r="AI45" s="11">
-        <v>177349</v>
+        <v>101578</v>
       </c>
       <c r="AJ45" s="11">
-        <v>112514</v>
+        <v>97719</v>
       </c>
       <c r="AK45" s="11">
-        <v>101578</v>
+        <v>114452</v>
       </c>
       <c r="AL45" s="11">
-        <v>97719</v>
+        <v>164061</v>
       </c>
       <c r="AM45" s="11">
-        <v>114452</v>
+        <v>188240</v>
       </c>
       <c r="AN45" s="11">
-        <v>164061</v>
+        <v>236083</v>
       </c>
       <c r="AO45" s="11">
-        <v>188240</v>
+        <v>203832</v>
       </c>
       <c r="AP45" s="11">
-        <v>236083</v>
+        <v>340036</v>
       </c>
       <c r="AQ45" s="11">
-        <v>203832</v>
+        <v>403583</v>
       </c>
       <c r="AR45" s="11">
-        <v>340036</v>
+        <v>234139</v>
       </c>
       <c r="AS45" s="11">
-        <v>403583</v>
+        <v>291910</v>
       </c>
       <c r="AT45" s="11">
-        <v>234139</v>
+        <v>429331</v>
       </c>
       <c r="AU45" s="11">
-        <v>291910</v>
+        <v>146071</v>
       </c>
       <c r="AV45" s="11">
-        <v>429331</v>
+        <v>160012</v>
       </c>
       <c r="AW45" s="11">
-        <v>146071</v>
+        <v>304799</v>
       </c>
       <c r="AX45" s="11">
-        <v>160012</v>
+        <v>434572</v>
       </c>
       <c r="AY45" s="11">
-        <v>304799</v>
+        <v>266160</v>
       </c>
       <c r="AZ45" s="11">
-        <v>434572</v>
+        <v>190974</v>
       </c>
       <c r="BA45" s="11">
-        <v>266160</v>
+        <v>219358</v>
       </c>
       <c r="BB45" s="11">
-        <v>190974</v>
+        <v>186443</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>69</v>
       </c>
@@ -5369,103 +5369,103 @@
         <v>0</v>
       </c>
       <c r="W46" s="13">
-        <v>0</v>
+        <v>91339</v>
       </c>
       <c r="X46" s="13">
-        <v>0</v>
+        <v>102827</v>
       </c>
       <c r="Y46" s="13">
-        <v>91339</v>
+        <v>51542</v>
       </c>
       <c r="Z46" s="13">
-        <v>102827</v>
+        <v>98090</v>
       </c>
       <c r="AA46" s="13">
-        <v>51542</v>
+        <v>96759</v>
       </c>
       <c r="AB46" s="13">
-        <v>98090</v>
+        <v>135160</v>
       </c>
       <c r="AC46" s="13">
-        <v>96759</v>
+        <v>244392</v>
       </c>
       <c r="AD46" s="13">
-        <v>135160</v>
+        <v>72577</v>
       </c>
       <c r="AE46" s="13">
-        <v>244392</v>
+        <v>213033</v>
       </c>
       <c r="AF46" s="13">
-        <v>72577</v>
+        <v>209645</v>
       </c>
       <c r="AG46" s="13">
-        <v>213033</v>
+        <v>177349</v>
       </c>
       <c r="AH46" s="13">
-        <v>209645</v>
+        <v>112514</v>
       </c>
       <c r="AI46" s="13">
-        <v>177349</v>
+        <v>101578</v>
       </c>
       <c r="AJ46" s="13">
-        <v>112514</v>
+        <v>97719</v>
       </c>
       <c r="AK46" s="13">
-        <v>101578</v>
+        <v>114452</v>
       </c>
       <c r="AL46" s="13">
-        <v>97719</v>
+        <v>164061</v>
       </c>
       <c r="AM46" s="13">
-        <v>114452</v>
+        <v>188240</v>
       </c>
       <c r="AN46" s="13">
-        <v>164061</v>
+        <v>236083</v>
       </c>
       <c r="AO46" s="13">
-        <v>188240</v>
+        <v>203832</v>
       </c>
       <c r="AP46" s="13">
-        <v>236083</v>
+        <v>340036</v>
       </c>
       <c r="AQ46" s="13">
-        <v>203832</v>
+        <v>403583</v>
       </c>
       <c r="AR46" s="13">
-        <v>340036</v>
+        <v>234139</v>
       </c>
       <c r="AS46" s="13">
-        <v>403583</v>
+        <v>291910</v>
       </c>
       <c r="AT46" s="13">
-        <v>234139</v>
+        <v>429331</v>
       </c>
       <c r="AU46" s="13">
-        <v>291910</v>
+        <v>146071</v>
       </c>
       <c r="AV46" s="13">
-        <v>429331</v>
+        <v>160012</v>
       </c>
       <c r="AW46" s="13">
-        <v>146071</v>
+        <v>304799</v>
       </c>
       <c r="AX46" s="13">
-        <v>160012</v>
+        <v>434572</v>
       </c>
       <c r="AY46" s="13">
-        <v>304799</v>
+        <v>266160</v>
       </c>
       <c r="AZ46" s="13">
-        <v>434572</v>
+        <v>190974</v>
       </c>
       <c r="BA46" s="13">
-        <v>266160</v>
+        <v>219358</v>
       </c>
       <c r="BB46" s="13">
-        <v>190974</v>
+        <v>186443</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>76</v>
       </c>
@@ -5522,7 +5522,7 @@
       <c r="BA47" s="15"/>
       <c r="BB47" s="15"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>63</v>
       </c>
@@ -5584,11 +5584,11 @@
       <c r="V48" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W48" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X48" s="17" t="s">
-        <v>58</v>
+      <c r="W48" s="17">
+        <v>0</v>
+      </c>
+      <c r="X48" s="17">
+        <v>0</v>
       </c>
       <c r="Y48" s="17">
         <v>0</v>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>77</v>
       </c>
@@ -5738,7 +5738,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -5800,11 +5800,11 @@
       <c r="V50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X50" s="11" t="s">
-        <v>58</v>
+      <c r="W50" s="11">
+        <v>0</v>
+      </c>
+      <c r="X50" s="11">
+        <v>0</v>
       </c>
       <c r="Y50" s="11">
         <v>0</v>
@@ -5827,11 +5827,11 @@
       <c r="AE50" s="11">
         <v>0</v>
       </c>
-      <c r="AF50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="11">
-        <v>0</v>
+      <c r="AF50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH50" s="11" t="s">
         <v>58</v>
@@ -5863,14 +5863,14 @@
       <c r="AQ50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS50" s="11" t="s">
-        <v>58</v>
+      <c r="AR50" s="11">
+        <v>-3399</v>
+      </c>
+      <c r="AS50" s="11">
+        <v>0</v>
       </c>
       <c r="AT50" s="11">
-        <v>-3399</v>
+        <v>0</v>
       </c>
       <c r="AU50" s="11">
         <v>0</v>
@@ -5885,19 +5885,19 @@
         <v>0</v>
       </c>
       <c r="AY50" s="11">
-        <v>0</v>
+        <v>-3387</v>
       </c>
       <c r="AZ50" s="11">
         <v>0</v>
       </c>
       <c r="BA50" s="11">
-        <v>-3387</v>
+        <v>0</v>
       </c>
       <c r="BB50" s="11">
-        <v>0</v>
+        <v>-7599</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>71</v>
       </c>
@@ -5959,11 +5959,11 @@
       <c r="V51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="13" t="s">
-        <v>58</v>
+      <c r="W51" s="13">
+        <v>0</v>
+      </c>
+      <c r="X51" s="13">
+        <v>0</v>
       </c>
       <c r="Y51" s="13">
         <v>0</v>
@@ -6023,13 +6023,13 @@
         <v>0</v>
       </c>
       <c r="AR51" s="13">
-        <v>0</v>
+        <v>-3399</v>
       </c>
       <c r="AS51" s="13">
         <v>0</v>
       </c>
       <c r="AT51" s="13">
-        <v>-3399</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="13">
         <v>0</v>
@@ -6044,19 +6044,19 @@
         <v>0</v>
       </c>
       <c r="AY51" s="13">
-        <v>0</v>
+        <v>-3387</v>
       </c>
       <c r="AZ51" s="13">
         <v>0</v>
       </c>
       <c r="BA51" s="13">
-        <v>-3387</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="13">
-        <v>0</v>
+        <v>-7599</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>78</v>
       </c>
@@ -6113,7 +6113,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>79</v>
       </c>
@@ -6175,11 +6175,11 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>0</v>
+      </c>
+      <c r="X53" s="11">
+        <v>0</v>
       </c>
       <c r="Y53" s="11">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>64</v>
       </c>
@@ -6333,103 +6333,103 @@
         <v>0</v>
       </c>
       <c r="W54" s="13">
-        <v>0</v>
+        <v>316312</v>
       </c>
       <c r="X54" s="13">
-        <v>0</v>
+        <v>379751</v>
       </c>
       <c r="Y54" s="13">
-        <v>316312</v>
+        <v>375814</v>
       </c>
       <c r="Z54" s="13">
-        <v>379751</v>
+        <v>528116</v>
       </c>
       <c r="AA54" s="13">
-        <v>375814</v>
+        <v>511470</v>
       </c>
       <c r="AB54" s="13">
-        <v>528116</v>
+        <v>595845</v>
       </c>
       <c r="AC54" s="13">
-        <v>511470</v>
+        <v>804072</v>
       </c>
       <c r="AD54" s="13">
-        <v>595845</v>
+        <v>727021</v>
       </c>
       <c r="AE54" s="13">
-        <v>804072</v>
+        <v>994137</v>
       </c>
       <c r="AF54" s="13">
-        <v>727021</v>
+        <v>623523</v>
       </c>
       <c r="AG54" s="13">
-        <v>994137</v>
+        <v>973878</v>
       </c>
       <c r="AH54" s="13">
-        <v>623523</v>
+        <v>865497</v>
       </c>
       <c r="AI54" s="13">
-        <v>973878</v>
+        <v>793727</v>
       </c>
       <c r="AJ54" s="13">
-        <v>865497</v>
+        <v>656049</v>
       </c>
       <c r="AK54" s="13">
-        <v>793727</v>
+        <v>830369</v>
       </c>
       <c r="AL54" s="13">
-        <v>656049</v>
+        <v>772467</v>
       </c>
       <c r="AM54" s="13">
-        <v>830369</v>
+        <v>857145</v>
       </c>
       <c r="AN54" s="13">
-        <v>772467</v>
+        <v>789783</v>
       </c>
       <c r="AO54" s="13">
-        <v>857145</v>
+        <v>845894</v>
       </c>
       <c r="AP54" s="13">
-        <v>789783</v>
+        <v>862837</v>
       </c>
       <c r="AQ54" s="13">
-        <v>845894</v>
+        <v>1232793</v>
       </c>
       <c r="AR54" s="13">
-        <v>862837</v>
+        <v>1145275</v>
       </c>
       <c r="AS54" s="13">
-        <v>1232793</v>
+        <v>1284478</v>
       </c>
       <c r="AT54" s="13">
-        <v>1145275</v>
+        <v>1595925</v>
       </c>
       <c r="AU54" s="13">
-        <v>1284478</v>
+        <v>1559621</v>
       </c>
       <c r="AV54" s="13">
-        <v>1595925</v>
+        <v>1529819</v>
       </c>
       <c r="AW54" s="13">
-        <v>1559621</v>
+        <v>1162815</v>
       </c>
       <c r="AX54" s="13">
-        <v>1529819</v>
+        <v>1458285</v>
       </c>
       <c r="AY54" s="13">
-        <v>1162815</v>
+        <v>1226590</v>
       </c>
       <c r="AZ54" s="13">
-        <v>1458285</v>
+        <v>1318457</v>
       </c>
       <c r="BA54" s="13">
-        <v>1226590</v>
+        <v>1022661</v>
       </c>
       <c r="BB54" s="13">
-        <v>1318457</v>
+        <v>1374528</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6484,7 +6484,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6539,7 +6539,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6594,7 +6594,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>80</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6806,7 +6806,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>81</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>56</v>
       </c>
@@ -6925,104 +6925,104 @@
       <c r="V61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="11" t="s">
-        <v>58</v>
+      <c r="W61" s="11">
+        <v>86694798</v>
+      </c>
+      <c r="X61" s="11">
+        <v>105898279</v>
       </c>
       <c r="Y61" s="11">
-        <v>86694798</v>
+        <v>118390654</v>
       </c>
       <c r="Z61" s="11">
-        <v>105898279</v>
+        <v>127452875</v>
       </c>
       <c r="AA61" s="11">
-        <v>118390654</v>
+        <v>141058163</v>
       </c>
       <c r="AB61" s="11">
-        <v>127452875</v>
+        <v>160294015</v>
       </c>
       <c r="AC61" s="11">
-        <v>141058163</v>
+        <v>180425532</v>
       </c>
       <c r="AD61" s="11">
-        <v>160294015</v>
+        <v>192710247</v>
       </c>
       <c r="AE61" s="11">
-        <v>180425532</v>
+        <v>206096042</v>
       </c>
       <c r="AF61" s="11">
-        <v>192710247</v>
+        <v>215898800</v>
       </c>
       <c r="AG61" s="11">
-        <v>206096042</v>
+        <v>231751237</v>
       </c>
       <c r="AH61" s="11">
-        <v>215898800</v>
+        <v>230976380</v>
       </c>
       <c r="AI61" s="11">
-        <v>231751237</v>
+        <v>234388419</v>
       </c>
       <c r="AJ61" s="11">
-        <v>230976380</v>
+        <v>241910745</v>
       </c>
       <c r="AK61" s="11">
-        <v>234388419</v>
+        <v>249101253</v>
       </c>
       <c r="AL61" s="11">
-        <v>241910745</v>
+        <v>256711392</v>
       </c>
       <c r="AM61" s="11">
-        <v>249101253</v>
+        <v>265543867</v>
       </c>
       <c r="AN61" s="11">
-        <v>256711392</v>
+        <v>265818531</v>
       </c>
       <c r="AO61" s="11">
-        <v>265543867</v>
+        <v>266747819</v>
       </c>
       <c r="AP61" s="11">
-        <v>265818531</v>
+        <v>278530101</v>
       </c>
       <c r="AQ61" s="11">
-        <v>266747819</v>
+        <v>302300401</v>
       </c>
       <c r="AR61" s="11">
-        <v>278530101</v>
+        <v>352693791</v>
       </c>
       <c r="AS61" s="11">
-        <v>302300401</v>
+        <v>371887598</v>
       </c>
       <c r="AT61" s="11">
-        <v>352693791</v>
+        <v>421609686</v>
       </c>
       <c r="AU61" s="11">
-        <v>371887598</v>
+        <v>441320637</v>
       </c>
       <c r="AV61" s="11">
-        <v>421609686</v>
+        <v>445465691</v>
       </c>
       <c r="AW61" s="11">
-        <v>441320637</v>
+        <v>425603175</v>
       </c>
       <c r="AX61" s="11">
-        <v>445465691</v>
+        <v>383269562</v>
       </c>
       <c r="AY61" s="11">
-        <v>425603175</v>
+        <v>372705723</v>
       </c>
       <c r="AZ61" s="11">
-        <v>383269562</v>
+        <v>355336590</v>
       </c>
       <c r="BA61" s="11">
-        <v>372705723</v>
+        <v>354346273</v>
       </c>
       <c r="BB61" s="11">
-        <v>355336590</v>
+        <v>360254293</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>83</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>56</v>
       </c>
@@ -7141,101 +7141,101 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>62304911</v>
+      </c>
+      <c r="X63" s="11">
+        <v>74783273</v>
       </c>
       <c r="Y63" s="11">
-        <v>62304911</v>
+        <v>87211506</v>
       </c>
       <c r="Z63" s="11">
-        <v>74783273</v>
+        <v>114994138</v>
       </c>
       <c r="AA63" s="11">
-        <v>87211506</v>
+        <v>131109756</v>
       </c>
       <c r="AB63" s="11">
-        <v>114994138</v>
+        <v>143177966</v>
       </c>
       <c r="AC63" s="11">
-        <v>131109756</v>
+        <v>183202399</v>
       </c>
       <c r="AD63" s="11">
-        <v>143177966</v>
+        <v>184674300</v>
       </c>
       <c r="AE63" s="11">
-        <v>183202399</v>
+        <v>201927014</v>
       </c>
       <c r="AF63" s="11">
-        <v>184674300</v>
+        <v>220911486</v>
       </c>
       <c r="AG63" s="11">
-        <v>201927014</v>
+        <v>222241855</v>
       </c>
       <c r="AH63" s="11">
-        <v>220911486</v>
+        <v>212290566</v>
       </c>
       <c r="AI63" s="11">
-        <v>222241855</v>
+        <v>224233996</v>
       </c>
       <c r="AJ63" s="11">
-        <v>212290566</v>
+        <v>228850117</v>
       </c>
       <c r="AK63" s="11">
-        <v>224233996</v>
+        <v>228904000</v>
       </c>
       <c r="AL63" s="11">
-        <v>228850117</v>
+        <v>224127049</v>
       </c>
       <c r="AM63" s="11">
-        <v>228904000</v>
+        <v>218629501</v>
       </c>
       <c r="AN63" s="11">
-        <v>224127049</v>
+        <v>225700765</v>
       </c>
       <c r="AO63" s="11">
-        <v>218629501</v>
+        <v>234829493</v>
       </c>
       <c r="AP63" s="11">
-        <v>225700765</v>
+        <v>230064953</v>
       </c>
       <c r="AQ63" s="11">
-        <v>234829493</v>
+        <v>228141888</v>
       </c>
       <c r="AR63" s="11">
-        <v>230064953</v>
+        <v>276760047</v>
       </c>
       <c r="AS63" s="11">
-        <v>228141888</v>
+        <v>322909292</v>
       </c>
       <c r="AT63" s="11">
-        <v>276760047</v>
+        <v>354819008</v>
       </c>
       <c r="AU63" s="11">
-        <v>322909292</v>
+        <v>329731377</v>
       </c>
       <c r="AV63" s="11">
-        <v>354819008</v>
+        <v>341905983</v>
       </c>
       <c r="AW63" s="11">
-        <v>329731377</v>
+        <v>318494253</v>
       </c>
       <c r="AX63" s="11">
-        <v>341905983</v>
+        <v>301995830</v>
       </c>
       <c r="AY63" s="11">
-        <v>318494253</v>
+        <v>291842105</v>
       </c>
       <c r="AZ63" s="11">
-        <v>301995830</v>
+        <v>273210300</v>
       </c>
       <c r="BA63" s="11">
-        <v>291842105</v>
+        <v>264925121</v>
       </c>
       <c r="BB63" s="11">
-        <v>273210300</v>
+        <v>261490884</v>
       </c>
     </row>
   </sheetData>
